--- a/INTLINE/data/134/DEUSTATIS/First registrations and changes in ownership of motor vehicles and trailers.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/First registrations and changes in ownership of motor vehicles and trailers.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1445" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1594" uniqueCount="94">
   <si>
     <t>First registrations and changes in ownership of motor
 vehicles and trailers: Germany, months, motor vehicle types</t>
@@ -209,6 +209,9 @@
     <t>2021</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>January</t>
   </si>
   <si>
@@ -254,6 +257,9 @@
     <t>number</t>
   </si>
   <si>
+    <t>...</t>
+  </si>
+  <si>
     <t>Changes in ownership: used mot. vehicles, trailers</t>
   </si>
   <si>
@@ -267,9 +273,6 @@
   </si>
   <si>
     <t>Lorries/trucks</t>
-  </si>
-  <si>
-    <t>...</t>
   </si>
   <si>
     <t>Motor buses, trolley buses</t>
@@ -293,7 +296,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-04-01 / 04:12:31</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:51:10</t>
   </si>
 </sst>
 </file>
@@ -856,7 +859,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2867">
+  <cellXfs count="2915">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="left" wrapText="true"/>
@@ -3752,16 +3755,112 @@
       <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
-      <protection hidden="false" locked="true"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -9452,6 +9551,54 @@
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="17" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="25" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
@@ -9466,6 +9613,54 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
       <alignment horizontal="left" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
+      <protection hidden="false" locked="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center" indent="0" textRotation="0" vertical="center" wrapText="true"/>
       <protection hidden="false" locked="true"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="16" xfId="0" applyBorder="true" applyNumberFormat="true" applyFill="true" applyFont="true">
@@ -12336,2978 +12531,3028 @@
       </c>
     </row>
     <row r="4" ht="29.25" customHeight="true">
-      <c r="A4" t="s" s="1445">
+      <c r="A4" t="s" s="1469">
         <v>3</v>
       </c>
-      <c r="B4" s="1446"/>
-      <c r="C4" t="s" s="1447">
+      <c r="B4" s="1470"/>
+      <c r="C4" t="s" s="1471">
         <v>4</v>
       </c>
-      <c r="D4" t="s" s="1448">
+      <c r="D4" t="s" s="1472">
         <v>5</v>
       </c>
-      <c r="E4" s="1449"/>
-      <c r="F4" s="1450"/>
-      <c r="G4" s="1451"/>
-      <c r="H4" s="1452"/>
-      <c r="I4" s="1453"/>
-      <c r="J4" s="1454"/>
-      <c r="K4" s="1455"/>
-      <c r="L4" s="1456"/>
-      <c r="M4" s="1457"/>
-      <c r="N4" s="1458"/>
-      <c r="O4" s="1459"/>
-      <c r="P4" t="s" s="1460">
+      <c r="E4" s="1473"/>
+      <c r="F4" s="1474"/>
+      <c r="G4" s="1475"/>
+      <c r="H4" s="1476"/>
+      <c r="I4" s="1477"/>
+      <c r="J4" s="1478"/>
+      <c r="K4" s="1479"/>
+      <c r="L4" s="1480"/>
+      <c r="M4" s="1481"/>
+      <c r="N4" s="1482"/>
+      <c r="O4" s="1483"/>
+      <c r="P4" t="s" s="1484">
         <v>6</v>
       </c>
-      <c r="Q4" s="1461"/>
-      <c r="R4" s="1462"/>
-      <c r="S4" s="1463"/>
-      <c r="T4" s="1464"/>
-      <c r="U4" s="1465"/>
-      <c r="V4" s="1466"/>
-      <c r="W4" s="1467"/>
-      <c r="X4" s="1468"/>
-      <c r="Y4" s="1469"/>
-      <c r="Z4" s="1470"/>
-      <c r="AA4" s="1471"/>
-      <c r="AB4" t="s" s="1472">
+      <c r="Q4" s="1485"/>
+      <c r="R4" s="1486"/>
+      <c r="S4" s="1487"/>
+      <c r="T4" s="1488"/>
+      <c r="U4" s="1489"/>
+      <c r="V4" s="1490"/>
+      <c r="W4" s="1491"/>
+      <c r="X4" s="1492"/>
+      <c r="Y4" s="1493"/>
+      <c r="Z4" s="1494"/>
+      <c r="AA4" s="1495"/>
+      <c r="AB4" t="s" s="1496">
         <v>7</v>
       </c>
-      <c r="AC4" s="1473"/>
-      <c r="AD4" s="1474"/>
-      <c r="AE4" s="1475"/>
-      <c r="AF4" s="1476"/>
-      <c r="AG4" s="1477"/>
-      <c r="AH4" s="1478"/>
-      <c r="AI4" s="1479"/>
-      <c r="AJ4" s="1480"/>
-      <c r="AK4" s="1481"/>
-      <c r="AL4" s="1482"/>
-      <c r="AM4" s="1483"/>
-      <c r="AN4" t="s" s="1484">
+      <c r="AC4" s="1497"/>
+      <c r="AD4" s="1498"/>
+      <c r="AE4" s="1499"/>
+      <c r="AF4" s="1500"/>
+      <c r="AG4" s="1501"/>
+      <c r="AH4" s="1502"/>
+      <c r="AI4" s="1503"/>
+      <c r="AJ4" s="1504"/>
+      <c r="AK4" s="1505"/>
+      <c r="AL4" s="1506"/>
+      <c r="AM4" s="1507"/>
+      <c r="AN4" t="s" s="1508">
         <v>8</v>
       </c>
-      <c r="AO4" s="1485"/>
-      <c r="AP4" s="1486"/>
-      <c r="AQ4" s="1487"/>
-      <c r="AR4" s="1488"/>
-      <c r="AS4" s="1489"/>
-      <c r="AT4" s="1490"/>
-      <c r="AU4" s="1491"/>
-      <c r="AV4" s="1492"/>
-      <c r="AW4" s="1493"/>
-      <c r="AX4" s="1494"/>
-      <c r="AY4" s="1495"/>
-      <c r="AZ4" t="s" s="1496">
+      <c r="AO4" s="1509"/>
+      <c r="AP4" s="1510"/>
+      <c r="AQ4" s="1511"/>
+      <c r="AR4" s="1512"/>
+      <c r="AS4" s="1513"/>
+      <c r="AT4" s="1514"/>
+      <c r="AU4" s="1515"/>
+      <c r="AV4" s="1516"/>
+      <c r="AW4" s="1517"/>
+      <c r="AX4" s="1518"/>
+      <c r="AY4" s="1519"/>
+      <c r="AZ4" t="s" s="1520">
         <v>9</v>
       </c>
-      <c r="BA4" s="1497"/>
-      <c r="BB4" s="1498"/>
-      <c r="BC4" s="1499"/>
-      <c r="BD4" s="1500"/>
-      <c r="BE4" s="1501"/>
-      <c r="BF4" s="1502"/>
-      <c r="BG4" s="1503"/>
-      <c r="BH4" s="1504"/>
-      <c r="BI4" s="1505"/>
-      <c r="BJ4" s="1506"/>
-      <c r="BK4" s="1507"/>
-      <c r="BL4" t="s" s="1508">
+      <c r="BA4" s="1521"/>
+      <c r="BB4" s="1522"/>
+      <c r="BC4" s="1523"/>
+      <c r="BD4" s="1524"/>
+      <c r="BE4" s="1525"/>
+      <c r="BF4" s="1526"/>
+      <c r="BG4" s="1527"/>
+      <c r="BH4" s="1528"/>
+      <c r="BI4" s="1529"/>
+      <c r="BJ4" s="1530"/>
+      <c r="BK4" s="1531"/>
+      <c r="BL4" t="s" s="1532">
         <v>10</v>
       </c>
-      <c r="BM4" s="1509"/>
-      <c r="BN4" s="1510"/>
-      <c r="BO4" s="1511"/>
-      <c r="BP4" s="1512"/>
-      <c r="BQ4" s="1513"/>
-      <c r="BR4" s="1514"/>
-      <c r="BS4" s="1515"/>
-      <c r="BT4" s="1516"/>
-      <c r="BU4" s="1517"/>
-      <c r="BV4" s="1518"/>
-      <c r="BW4" s="1519"/>
-      <c r="BX4" t="s" s="1520">
+      <c r="BM4" s="1533"/>
+      <c r="BN4" s="1534"/>
+      <c r="BO4" s="1535"/>
+      <c r="BP4" s="1536"/>
+      <c r="BQ4" s="1537"/>
+      <c r="BR4" s="1538"/>
+      <c r="BS4" s="1539"/>
+      <c r="BT4" s="1540"/>
+      <c r="BU4" s="1541"/>
+      <c r="BV4" s="1542"/>
+      <c r="BW4" s="1543"/>
+      <c r="BX4" t="s" s="1544">
         <v>11</v>
       </c>
-      <c r="BY4" s="1521"/>
-      <c r="BZ4" s="1522"/>
-      <c r="CA4" s="1523"/>
-      <c r="CB4" s="1524"/>
-      <c r="CC4" s="1525"/>
-      <c r="CD4" s="1526"/>
-      <c r="CE4" s="1527"/>
-      <c r="CF4" s="1528"/>
-      <c r="CG4" s="1529"/>
-      <c r="CH4" s="1530"/>
-      <c r="CI4" s="1531"/>
-      <c r="CJ4" t="s" s="1532">
+      <c r="BY4" s="1545"/>
+      <c r="BZ4" s="1546"/>
+      <c r="CA4" s="1547"/>
+      <c r="CB4" s="1548"/>
+      <c r="CC4" s="1549"/>
+      <c r="CD4" s="1550"/>
+      <c r="CE4" s="1551"/>
+      <c r="CF4" s="1552"/>
+      <c r="CG4" s="1553"/>
+      <c r="CH4" s="1554"/>
+      <c r="CI4" s="1555"/>
+      <c r="CJ4" t="s" s="1556">
         <v>12</v>
       </c>
-      <c r="CK4" s="1533"/>
-      <c r="CL4" s="1534"/>
-      <c r="CM4" s="1535"/>
-      <c r="CN4" s="1536"/>
-      <c r="CO4" s="1537"/>
-      <c r="CP4" s="1538"/>
-      <c r="CQ4" s="1539"/>
-      <c r="CR4" s="1540"/>
-      <c r="CS4" s="1541"/>
-      <c r="CT4" s="1542"/>
-      <c r="CU4" s="1543"/>
-      <c r="CV4" t="s" s="1544">
+      <c r="CK4" s="1557"/>
+      <c r="CL4" s="1558"/>
+      <c r="CM4" s="1559"/>
+      <c r="CN4" s="1560"/>
+      <c r="CO4" s="1561"/>
+      <c r="CP4" s="1562"/>
+      <c r="CQ4" s="1563"/>
+      <c r="CR4" s="1564"/>
+      <c r="CS4" s="1565"/>
+      <c r="CT4" s="1566"/>
+      <c r="CU4" s="1567"/>
+      <c r="CV4" t="s" s="1568">
         <v>13</v>
       </c>
-      <c r="CW4" s="1545"/>
-      <c r="CX4" s="1546"/>
-      <c r="CY4" s="1547"/>
-      <c r="CZ4" s="1548"/>
-      <c r="DA4" s="1549"/>
-      <c r="DB4" s="1550"/>
-      <c r="DC4" s="1551"/>
-      <c r="DD4" s="1552"/>
-      <c r="DE4" s="1553"/>
-      <c r="DF4" s="1554"/>
-      <c r="DG4" s="1555"/>
-      <c r="DH4" t="s" s="1556">
+      <c r="CW4" s="1569"/>
+      <c r="CX4" s="1570"/>
+      <c r="CY4" s="1571"/>
+      <c r="CZ4" s="1572"/>
+      <c r="DA4" s="1573"/>
+      <c r="DB4" s="1574"/>
+      <c r="DC4" s="1575"/>
+      <c r="DD4" s="1576"/>
+      <c r="DE4" s="1577"/>
+      <c r="DF4" s="1578"/>
+      <c r="DG4" s="1579"/>
+      <c r="DH4" t="s" s="1580">
         <v>14</v>
       </c>
-      <c r="DI4" s="1557"/>
-      <c r="DJ4" s="1558"/>
-      <c r="DK4" s="1559"/>
-      <c r="DL4" s="1560"/>
-      <c r="DM4" s="1561"/>
-      <c r="DN4" s="1562"/>
-      <c r="DO4" s="1563"/>
-      <c r="DP4" s="1564"/>
-      <c r="DQ4" s="1565"/>
-      <c r="DR4" s="1566"/>
-      <c r="DS4" s="1567"/>
-      <c r="DT4" t="s" s="1568">
+      <c r="DI4" s="1581"/>
+      <c r="DJ4" s="1582"/>
+      <c r="DK4" s="1583"/>
+      <c r="DL4" s="1584"/>
+      <c r="DM4" s="1585"/>
+      <c r="DN4" s="1586"/>
+      <c r="DO4" s="1587"/>
+      <c r="DP4" s="1588"/>
+      <c r="DQ4" s="1589"/>
+      <c r="DR4" s="1590"/>
+      <c r="DS4" s="1591"/>
+      <c r="DT4" t="s" s="1592">
         <v>15</v>
       </c>
-      <c r="DU4" s="1569"/>
-      <c r="DV4" s="1570"/>
-      <c r="DW4" s="1571"/>
-      <c r="DX4" s="1572"/>
-      <c r="DY4" s="1573"/>
-      <c r="DZ4" s="1574"/>
-      <c r="EA4" s="1575"/>
-      <c r="EB4" s="1576"/>
-      <c r="EC4" s="1577"/>
-      <c r="ED4" s="1578"/>
-      <c r="EE4" s="1579"/>
-      <c r="EF4" t="s" s="1580">
+      <c r="DU4" s="1593"/>
+      <c r="DV4" s="1594"/>
+      <c r="DW4" s="1595"/>
+      <c r="DX4" s="1596"/>
+      <c r="DY4" s="1597"/>
+      <c r="DZ4" s="1598"/>
+      <c r="EA4" s="1599"/>
+      <c r="EB4" s="1600"/>
+      <c r="EC4" s="1601"/>
+      <c r="ED4" s="1602"/>
+      <c r="EE4" s="1603"/>
+      <c r="EF4" t="s" s="1604">
         <v>16</v>
       </c>
-      <c r="EG4" s="1581"/>
-      <c r="EH4" s="1582"/>
-      <c r="EI4" s="1583"/>
-      <c r="EJ4" s="1584"/>
-      <c r="EK4" s="1585"/>
-      <c r="EL4" s="1586"/>
-      <c r="EM4" s="1587"/>
-      <c r="EN4" s="1588"/>
-      <c r="EO4" s="1589"/>
-      <c r="EP4" s="1590"/>
-      <c r="EQ4" s="1591"/>
-      <c r="ER4" t="s" s="1592">
+      <c r="EG4" s="1605"/>
+      <c r="EH4" s="1606"/>
+      <c r="EI4" s="1607"/>
+      <c r="EJ4" s="1608"/>
+      <c r="EK4" s="1609"/>
+      <c r="EL4" s="1610"/>
+      <c r="EM4" s="1611"/>
+      <c r="EN4" s="1612"/>
+      <c r="EO4" s="1613"/>
+      <c r="EP4" s="1614"/>
+      <c r="EQ4" s="1615"/>
+      <c r="ER4" t="s" s="1616">
         <v>17</v>
       </c>
-      <c r="ES4" s="1593"/>
-      <c r="ET4" s="1594"/>
-      <c r="EU4" s="1595"/>
-      <c r="EV4" s="1596"/>
-      <c r="EW4" s="1597"/>
-      <c r="EX4" s="1598"/>
-      <c r="EY4" s="1599"/>
-      <c r="EZ4" s="1600"/>
-      <c r="FA4" s="1601"/>
-      <c r="FB4" s="1602"/>
-      <c r="FC4" s="1603"/>
-      <c r="FD4" t="s" s="1604">
+      <c r="ES4" s="1617"/>
+      <c r="ET4" s="1618"/>
+      <c r="EU4" s="1619"/>
+      <c r="EV4" s="1620"/>
+      <c r="EW4" s="1621"/>
+      <c r="EX4" s="1622"/>
+      <c r="EY4" s="1623"/>
+      <c r="EZ4" s="1624"/>
+      <c r="FA4" s="1625"/>
+      <c r="FB4" s="1626"/>
+      <c r="FC4" s="1627"/>
+      <c r="FD4" t="s" s="1628">
         <v>18</v>
       </c>
-      <c r="FE4" s="1605"/>
-      <c r="FF4" s="1606"/>
-      <c r="FG4" s="1607"/>
-      <c r="FH4" s="1608"/>
-      <c r="FI4" s="1609"/>
-      <c r="FJ4" s="1610"/>
-      <c r="FK4" s="1611"/>
-      <c r="FL4" s="1612"/>
-      <c r="FM4" s="1613"/>
-      <c r="FN4" s="1614"/>
-      <c r="FO4" s="1615"/>
-      <c r="FP4" t="s" s="1616">
+      <c r="FE4" s="1629"/>
+      <c r="FF4" s="1630"/>
+      <c r="FG4" s="1631"/>
+      <c r="FH4" s="1632"/>
+      <c r="FI4" s="1633"/>
+      <c r="FJ4" s="1634"/>
+      <c r="FK4" s="1635"/>
+      <c r="FL4" s="1636"/>
+      <c r="FM4" s="1637"/>
+      <c r="FN4" s="1638"/>
+      <c r="FO4" s="1639"/>
+      <c r="FP4" t="s" s="1640">
         <v>19</v>
       </c>
-      <c r="FQ4" s="1617"/>
-      <c r="FR4" s="1618"/>
-      <c r="FS4" s="1619"/>
-      <c r="FT4" s="1620"/>
-      <c r="FU4" s="1621"/>
-      <c r="FV4" s="1622"/>
-      <c r="FW4" s="1623"/>
-      <c r="FX4" s="1624"/>
-      <c r="FY4" s="1625"/>
-      <c r="FZ4" s="1626"/>
-      <c r="GA4" s="1627"/>
-      <c r="GB4" t="s" s="1628">
+      <c r="FQ4" s="1641"/>
+      <c r="FR4" s="1642"/>
+      <c r="FS4" s="1643"/>
+      <c r="FT4" s="1644"/>
+      <c r="FU4" s="1645"/>
+      <c r="FV4" s="1646"/>
+      <c r="FW4" s="1647"/>
+      <c r="FX4" s="1648"/>
+      <c r="FY4" s="1649"/>
+      <c r="FZ4" s="1650"/>
+      <c r="GA4" s="1651"/>
+      <c r="GB4" t="s" s="1652">
         <v>20</v>
       </c>
-      <c r="GC4" s="1629"/>
-      <c r="GD4" s="1630"/>
-      <c r="GE4" s="1631"/>
-      <c r="GF4" s="1632"/>
-      <c r="GG4" s="1633"/>
-      <c r="GH4" s="1634"/>
-      <c r="GI4" s="1635"/>
-      <c r="GJ4" s="1636"/>
-      <c r="GK4" s="1637"/>
-      <c r="GL4" s="1638"/>
-      <c r="GM4" s="1639"/>
-      <c r="GN4" t="s" s="1640">
+      <c r="GC4" s="1653"/>
+      <c r="GD4" s="1654"/>
+      <c r="GE4" s="1655"/>
+      <c r="GF4" s="1656"/>
+      <c r="GG4" s="1657"/>
+      <c r="GH4" s="1658"/>
+      <c r="GI4" s="1659"/>
+      <c r="GJ4" s="1660"/>
+      <c r="GK4" s="1661"/>
+      <c r="GL4" s="1662"/>
+      <c r="GM4" s="1663"/>
+      <c r="GN4" t="s" s="1664">
         <v>21</v>
       </c>
-      <c r="GO4" s="1641"/>
-      <c r="GP4" s="1642"/>
-      <c r="GQ4" s="1643"/>
-      <c r="GR4" s="1644"/>
-      <c r="GS4" s="1645"/>
-      <c r="GT4" s="1646"/>
-      <c r="GU4" s="1647"/>
-      <c r="GV4" s="1648"/>
-      <c r="GW4" s="1649"/>
-      <c r="GX4" s="1650"/>
-      <c r="GY4" s="1651"/>
-      <c r="GZ4" t="s" s="1652">
+      <c r="GO4" s="1665"/>
+      <c r="GP4" s="1666"/>
+      <c r="GQ4" s="1667"/>
+      <c r="GR4" s="1668"/>
+      <c r="GS4" s="1669"/>
+      <c r="GT4" s="1670"/>
+      <c r="GU4" s="1671"/>
+      <c r="GV4" s="1672"/>
+      <c r="GW4" s="1673"/>
+      <c r="GX4" s="1674"/>
+      <c r="GY4" s="1675"/>
+      <c r="GZ4" t="s" s="1676">
         <v>22</v>
       </c>
-      <c r="HA4" s="1653"/>
-      <c r="HB4" s="1654"/>
-      <c r="HC4" s="1655"/>
-      <c r="HD4" s="1656"/>
-      <c r="HE4" s="1657"/>
-      <c r="HF4" s="1658"/>
-      <c r="HG4" s="1659"/>
-      <c r="HH4" s="1660"/>
-      <c r="HI4" s="1661"/>
-      <c r="HJ4" s="1662"/>
-      <c r="HK4" s="1663"/>
-      <c r="HL4" t="s" s="1664">
+      <c r="HA4" s="1677"/>
+      <c r="HB4" s="1678"/>
+      <c r="HC4" s="1679"/>
+      <c r="HD4" s="1680"/>
+      <c r="HE4" s="1681"/>
+      <c r="HF4" s="1682"/>
+      <c r="HG4" s="1683"/>
+      <c r="HH4" s="1684"/>
+      <c r="HI4" s="1685"/>
+      <c r="HJ4" s="1686"/>
+      <c r="HK4" s="1687"/>
+      <c r="HL4" t="s" s="1688">
         <v>23</v>
       </c>
-      <c r="HM4" s="1665"/>
-      <c r="HN4" s="1666"/>
-      <c r="HO4" s="1667"/>
-      <c r="HP4" s="1668"/>
-      <c r="HQ4" s="1669"/>
-      <c r="HR4" s="1670"/>
-      <c r="HS4" s="1671"/>
-      <c r="HT4" s="1672"/>
-      <c r="HU4" s="1673"/>
-      <c r="HV4" s="1674"/>
-      <c r="HW4" s="1675"/>
-      <c r="HX4" t="s" s="1676">
+      <c r="HM4" s="1689"/>
+      <c r="HN4" s="1690"/>
+      <c r="HO4" s="1691"/>
+      <c r="HP4" s="1692"/>
+      <c r="HQ4" s="1693"/>
+      <c r="HR4" s="1694"/>
+      <c r="HS4" s="1695"/>
+      <c r="HT4" s="1696"/>
+      <c r="HU4" s="1697"/>
+      <c r="HV4" s="1698"/>
+      <c r="HW4" s="1699"/>
+      <c r="HX4" t="s" s="1700">
         <v>24</v>
       </c>
-      <c r="HY4" s="1677"/>
-      <c r="HZ4" s="1678"/>
-      <c r="IA4" s="1679"/>
-      <c r="IB4" s="1680"/>
-      <c r="IC4" s="1681"/>
-      <c r="ID4" s="1682"/>
-      <c r="IE4" s="1683"/>
-      <c r="IF4" s="1684"/>
-      <c r="IG4" s="1685"/>
-      <c r="IH4" s="1686"/>
-      <c r="II4" s="1687"/>
-      <c r="IJ4" t="s" s="1688">
+      <c r="HY4" s="1701"/>
+      <c r="HZ4" s="1702"/>
+      <c r="IA4" s="1703"/>
+      <c r="IB4" s="1704"/>
+      <c r="IC4" s="1705"/>
+      <c r="ID4" s="1706"/>
+      <c r="IE4" s="1707"/>
+      <c r="IF4" s="1708"/>
+      <c r="IG4" s="1709"/>
+      <c r="IH4" s="1710"/>
+      <c r="II4" s="1711"/>
+      <c r="IJ4" t="s" s="1712">
         <v>25</v>
       </c>
-      <c r="IK4" s="1689"/>
-      <c r="IL4" s="1690"/>
-      <c r="IM4" s="1691"/>
-      <c r="IN4" s="1692"/>
-      <c r="IO4" s="1693"/>
-      <c r="IP4" s="1694"/>
-      <c r="IQ4" s="1695"/>
-      <c r="IR4" s="1696"/>
-      <c r="IS4" s="1697"/>
-      <c r="IT4" s="1698"/>
-      <c r="IU4" s="1699"/>
-      <c r="IV4" t="s" s="1700">
+      <c r="IK4" s="1713"/>
+      <c r="IL4" s="1714"/>
+      <c r="IM4" s="1715"/>
+      <c r="IN4" s="1716"/>
+      <c r="IO4" s="1717"/>
+      <c r="IP4" s="1718"/>
+      <c r="IQ4" s="1719"/>
+      <c r="IR4" s="1720"/>
+      <c r="IS4" s="1721"/>
+      <c r="IT4" s="1722"/>
+      <c r="IU4" s="1723"/>
+      <c r="IV4" t="s" s="1724">
         <v>26</v>
       </c>
-      <c r="IW4" s="1701"/>
-      <c r="IX4" s="1702"/>
-      <c r="IY4" s="1703"/>
-      <c r="IZ4" s="1704"/>
-      <c r="JA4" s="1705"/>
-      <c r="JB4" s="1706"/>
-      <c r="JC4" s="1707"/>
-      <c r="JD4" s="1708"/>
-      <c r="JE4" s="1709"/>
-      <c r="JF4" s="1710"/>
-      <c r="JG4" s="1711"/>
-      <c r="JH4" t="s" s="1712">
+      <c r="IW4" s="1725"/>
+      <c r="IX4" s="1726"/>
+      <c r="IY4" s="1727"/>
+      <c r="IZ4" s="1728"/>
+      <c r="JA4" s="1729"/>
+      <c r="JB4" s="1730"/>
+      <c r="JC4" s="1731"/>
+      <c r="JD4" s="1732"/>
+      <c r="JE4" s="1733"/>
+      <c r="JF4" s="1734"/>
+      <c r="JG4" s="1735"/>
+      <c r="JH4" t="s" s="1736">
         <v>27</v>
       </c>
-      <c r="JI4" s="1713"/>
-      <c r="JJ4" s="1714"/>
-      <c r="JK4" s="1715"/>
-      <c r="JL4" s="1716"/>
-      <c r="JM4" s="1717"/>
-      <c r="JN4" s="1718"/>
-      <c r="JO4" s="1719"/>
-      <c r="JP4" s="1720"/>
-      <c r="JQ4" s="1721"/>
-      <c r="JR4" s="1722"/>
-      <c r="JS4" s="1723"/>
-      <c r="JT4" t="s" s="1724">
+      <c r="JI4" s="1737"/>
+      <c r="JJ4" s="1738"/>
+      <c r="JK4" s="1739"/>
+      <c r="JL4" s="1740"/>
+      <c r="JM4" s="1741"/>
+      <c r="JN4" s="1742"/>
+      <c r="JO4" s="1743"/>
+      <c r="JP4" s="1744"/>
+      <c r="JQ4" s="1745"/>
+      <c r="JR4" s="1746"/>
+      <c r="JS4" s="1747"/>
+      <c r="JT4" t="s" s="1748">
         <v>28</v>
       </c>
-      <c r="JU4" s="1725"/>
-      <c r="JV4" s="1726"/>
-      <c r="JW4" s="1727"/>
-      <c r="JX4" s="1728"/>
-      <c r="JY4" s="1729"/>
-      <c r="JZ4" s="1730"/>
-      <c r="KA4" s="1731"/>
-      <c r="KB4" s="1732"/>
-      <c r="KC4" s="1733"/>
-      <c r="KD4" s="1734"/>
-      <c r="KE4" s="1735"/>
-      <c r="KF4" t="s" s="1736">
+      <c r="JU4" s="1749"/>
+      <c r="JV4" s="1750"/>
+      <c r="JW4" s="1751"/>
+      <c r="JX4" s="1752"/>
+      <c r="JY4" s="1753"/>
+      <c r="JZ4" s="1754"/>
+      <c r="KA4" s="1755"/>
+      <c r="KB4" s="1756"/>
+      <c r="KC4" s="1757"/>
+      <c r="KD4" s="1758"/>
+      <c r="KE4" s="1759"/>
+      <c r="KF4" t="s" s="1760">
         <v>29</v>
       </c>
-      <c r="KG4" s="1737"/>
-      <c r="KH4" s="1738"/>
-      <c r="KI4" s="1739"/>
-      <c r="KJ4" s="1740"/>
-      <c r="KK4" s="1741"/>
-      <c r="KL4" s="1742"/>
-      <c r="KM4" s="1743"/>
-      <c r="KN4" s="1744"/>
-      <c r="KO4" s="1745"/>
-      <c r="KP4" s="1746"/>
-      <c r="KQ4" s="1747"/>
-      <c r="KR4" t="s" s="1748">
+      <c r="KG4" s="1761"/>
+      <c r="KH4" s="1762"/>
+      <c r="KI4" s="1763"/>
+      <c r="KJ4" s="1764"/>
+      <c r="KK4" s="1765"/>
+      <c r="KL4" s="1766"/>
+      <c r="KM4" s="1767"/>
+      <c r="KN4" s="1768"/>
+      <c r="KO4" s="1769"/>
+      <c r="KP4" s="1770"/>
+      <c r="KQ4" s="1771"/>
+      <c r="KR4" t="s" s="1772">
         <v>30</v>
       </c>
-      <c r="KS4" s="1749"/>
-      <c r="KT4" s="1750"/>
-      <c r="KU4" s="1751"/>
-      <c r="KV4" s="1752"/>
-      <c r="KW4" s="1753"/>
-      <c r="KX4" s="1754"/>
-      <c r="KY4" s="1755"/>
-      <c r="KZ4" s="1756"/>
-      <c r="LA4" s="1757"/>
-      <c r="LB4" s="1758"/>
-      <c r="LC4" s="1759"/>
-      <c r="LD4" t="s" s="1760">
+      <c r="KS4" s="1773"/>
+      <c r="KT4" s="1774"/>
+      <c r="KU4" s="1775"/>
+      <c r="KV4" s="1776"/>
+      <c r="KW4" s="1777"/>
+      <c r="KX4" s="1778"/>
+      <c r="KY4" s="1779"/>
+      <c r="KZ4" s="1780"/>
+      <c r="LA4" s="1781"/>
+      <c r="LB4" s="1782"/>
+      <c r="LC4" s="1783"/>
+      <c r="LD4" t="s" s="1784">
         <v>31</v>
       </c>
-      <c r="LE4" s="1761"/>
-      <c r="LF4" s="1762"/>
-      <c r="LG4" s="1763"/>
-      <c r="LH4" s="1764"/>
-      <c r="LI4" s="1765"/>
-      <c r="LJ4" s="1766"/>
-      <c r="LK4" s="1767"/>
-      <c r="LL4" s="1768"/>
-      <c r="LM4" s="1769"/>
-      <c r="LN4" s="1770"/>
-      <c r="LO4" s="1771"/>
-      <c r="LP4" t="s" s="1772">
+      <c r="LE4" s="1785"/>
+      <c r="LF4" s="1786"/>
+      <c r="LG4" s="1787"/>
+      <c r="LH4" s="1788"/>
+      <c r="LI4" s="1789"/>
+      <c r="LJ4" s="1790"/>
+      <c r="LK4" s="1791"/>
+      <c r="LL4" s="1792"/>
+      <c r="LM4" s="1793"/>
+      <c r="LN4" s="1794"/>
+      <c r="LO4" s="1795"/>
+      <c r="LP4" t="s" s="1796">
         <v>32</v>
       </c>
-      <c r="LQ4" s="1773"/>
-      <c r="LR4" s="1774"/>
-      <c r="LS4" s="1775"/>
-      <c r="LT4" s="1776"/>
-      <c r="LU4" s="1777"/>
-      <c r="LV4" s="1778"/>
-      <c r="LW4" s="1779"/>
-      <c r="LX4" s="1780"/>
-      <c r="LY4" s="1781"/>
-      <c r="LZ4" s="1782"/>
-      <c r="MA4" s="1783"/>
-      <c r="MB4" t="s" s="1784">
+      <c r="LQ4" s="1797"/>
+      <c r="LR4" s="1798"/>
+      <c r="LS4" s="1799"/>
+      <c r="LT4" s="1800"/>
+      <c r="LU4" s="1801"/>
+      <c r="LV4" s="1802"/>
+      <c r="LW4" s="1803"/>
+      <c r="LX4" s="1804"/>
+      <c r="LY4" s="1805"/>
+      <c r="LZ4" s="1806"/>
+      <c r="MA4" s="1807"/>
+      <c r="MB4" t="s" s="1808">
         <v>33</v>
       </c>
-      <c r="MC4" s="1785"/>
-      <c r="MD4" s="1786"/>
-      <c r="ME4" s="1787"/>
-      <c r="MF4" s="1788"/>
-      <c r="MG4" s="1789"/>
-      <c r="MH4" s="1790"/>
-      <c r="MI4" s="1791"/>
-      <c r="MJ4" s="1792"/>
-      <c r="MK4" s="1793"/>
-      <c r="ML4" s="1794"/>
-      <c r="MM4" s="1795"/>
-      <c r="MN4" t="s" s="1796">
+      <c r="MC4" s="1809"/>
+      <c r="MD4" s="1810"/>
+      <c r="ME4" s="1811"/>
+      <c r="MF4" s="1812"/>
+      <c r="MG4" s="1813"/>
+      <c r="MH4" s="1814"/>
+      <c r="MI4" s="1815"/>
+      <c r="MJ4" s="1816"/>
+      <c r="MK4" s="1817"/>
+      <c r="ML4" s="1818"/>
+      <c r="MM4" s="1819"/>
+      <c r="MN4" t="s" s="1820">
         <v>34</v>
       </c>
-      <c r="MO4" s="1797"/>
-      <c r="MP4" s="1798"/>
-      <c r="MQ4" s="1799"/>
-      <c r="MR4" s="1800"/>
-      <c r="MS4" s="1801"/>
-      <c r="MT4" s="1802"/>
-      <c r="MU4" s="1803"/>
-      <c r="MV4" s="1804"/>
-      <c r="MW4" s="1805"/>
-      <c r="MX4" s="1806"/>
-      <c r="MY4" s="1807"/>
-      <c r="MZ4" t="s" s="1808">
+      <c r="MO4" s="1821"/>
+      <c r="MP4" s="1822"/>
+      <c r="MQ4" s="1823"/>
+      <c r="MR4" s="1824"/>
+      <c r="MS4" s="1825"/>
+      <c r="MT4" s="1826"/>
+      <c r="MU4" s="1827"/>
+      <c r="MV4" s="1828"/>
+      <c r="MW4" s="1829"/>
+      <c r="MX4" s="1830"/>
+      <c r="MY4" s="1831"/>
+      <c r="MZ4" t="s" s="1832">
         <v>35</v>
       </c>
-      <c r="NA4" s="1809"/>
-      <c r="NB4" s="1810"/>
-      <c r="NC4" s="1811"/>
-      <c r="ND4" s="1812"/>
-      <c r="NE4" s="1813"/>
-      <c r="NF4" s="1814"/>
-      <c r="NG4" s="1815"/>
-      <c r="NH4" s="1816"/>
-      <c r="NI4" s="1817"/>
-      <c r="NJ4" s="1818"/>
-      <c r="NK4" s="1819"/>
-      <c r="NL4" t="s" s="1820">
+      <c r="NA4" s="1833"/>
+      <c r="NB4" s="1834"/>
+      <c r="NC4" s="1835"/>
+      <c r="ND4" s="1836"/>
+      <c r="NE4" s="1837"/>
+      <c r="NF4" s="1838"/>
+      <c r="NG4" s="1839"/>
+      <c r="NH4" s="1840"/>
+      <c r="NI4" s="1841"/>
+      <c r="NJ4" s="1842"/>
+      <c r="NK4" s="1843"/>
+      <c r="NL4" t="s" s="1844">
         <v>36</v>
       </c>
-      <c r="NM4" s="1821"/>
-      <c r="NN4" s="1822"/>
-      <c r="NO4" s="1823"/>
-      <c r="NP4" s="1824"/>
-      <c r="NQ4" s="1825"/>
-      <c r="NR4" s="1826"/>
-      <c r="NS4" s="1827"/>
-      <c r="NT4" s="1828"/>
-      <c r="NU4" s="1829"/>
-      <c r="NV4" s="1830"/>
-      <c r="NW4" s="1831"/>
-      <c r="NX4" t="s" s="1832">
+      <c r="NM4" s="1845"/>
+      <c r="NN4" s="1846"/>
+      <c r="NO4" s="1847"/>
+      <c r="NP4" s="1848"/>
+      <c r="NQ4" s="1849"/>
+      <c r="NR4" s="1850"/>
+      <c r="NS4" s="1851"/>
+      <c r="NT4" s="1852"/>
+      <c r="NU4" s="1853"/>
+      <c r="NV4" s="1854"/>
+      <c r="NW4" s="1855"/>
+      <c r="NX4" t="s" s="1856">
         <v>37</v>
       </c>
-      <c r="NY4" s="1833"/>
-      <c r="NZ4" s="1834"/>
-      <c r="OA4" s="1835"/>
-      <c r="OB4" s="1836"/>
-      <c r="OC4" s="1837"/>
-      <c r="OD4" s="1838"/>
-      <c r="OE4" s="1839"/>
-      <c r="OF4" s="1840"/>
-      <c r="OG4" s="1841"/>
-      <c r="OH4" s="1842"/>
-      <c r="OI4" s="1843"/>
-      <c r="OJ4" t="s" s="1844">
+      <c r="NY4" s="1857"/>
+      <c r="NZ4" s="1858"/>
+      <c r="OA4" s="1859"/>
+      <c r="OB4" s="1860"/>
+      <c r="OC4" s="1861"/>
+      <c r="OD4" s="1862"/>
+      <c r="OE4" s="1863"/>
+      <c r="OF4" s="1864"/>
+      <c r="OG4" s="1865"/>
+      <c r="OH4" s="1866"/>
+      <c r="OI4" s="1867"/>
+      <c r="OJ4" t="s" s="1868">
         <v>38</v>
       </c>
-      <c r="OK4" s="1845"/>
-      <c r="OL4" s="1846"/>
-      <c r="OM4" s="1847"/>
-      <c r="ON4" s="1848"/>
-      <c r="OO4" s="1849"/>
-      <c r="OP4" s="1850"/>
-      <c r="OQ4" s="1851"/>
-      <c r="OR4" s="1852"/>
-      <c r="OS4" s="1853"/>
-      <c r="OT4" s="1854"/>
-      <c r="OU4" s="1855"/>
-      <c r="OV4" t="s" s="1856">
+      <c r="OK4" s="1869"/>
+      <c r="OL4" s="1870"/>
+      <c r="OM4" s="1871"/>
+      <c r="ON4" s="1872"/>
+      <c r="OO4" s="1873"/>
+      <c r="OP4" s="1874"/>
+      <c r="OQ4" s="1875"/>
+      <c r="OR4" s="1876"/>
+      <c r="OS4" s="1877"/>
+      <c r="OT4" s="1878"/>
+      <c r="OU4" s="1879"/>
+      <c r="OV4" t="s" s="1880">
         <v>39</v>
       </c>
-      <c r="OW4" s="1857"/>
-      <c r="OX4" s="1858"/>
-      <c r="OY4" s="1859"/>
-      <c r="OZ4" s="1860"/>
-      <c r="PA4" s="1861"/>
-      <c r="PB4" s="1862"/>
-      <c r="PC4" s="1863"/>
-      <c r="PD4" s="1864"/>
-      <c r="PE4" s="1865"/>
-      <c r="PF4" s="1866"/>
-      <c r="PG4" s="1867"/>
-      <c r="PH4" t="s" s="1868">
+      <c r="OW4" s="1881"/>
+      <c r="OX4" s="1882"/>
+      <c r="OY4" s="1883"/>
+      <c r="OZ4" s="1884"/>
+      <c r="PA4" s="1885"/>
+      <c r="PB4" s="1886"/>
+      <c r="PC4" s="1887"/>
+      <c r="PD4" s="1888"/>
+      <c r="PE4" s="1889"/>
+      <c r="PF4" s="1890"/>
+      <c r="PG4" s="1891"/>
+      <c r="PH4" t="s" s="1892">
         <v>40</v>
       </c>
-      <c r="PI4" s="1869"/>
-      <c r="PJ4" s="1870"/>
-      <c r="PK4" s="1871"/>
-      <c r="PL4" s="1872"/>
-      <c r="PM4" s="1873"/>
-      <c r="PN4" s="1874"/>
-      <c r="PO4" s="1875"/>
-      <c r="PP4" s="1876"/>
-      <c r="PQ4" s="1877"/>
-      <c r="PR4" s="1878"/>
-      <c r="PS4" s="1879"/>
-      <c r="PT4" t="s" s="1880">
+      <c r="PI4" s="1893"/>
+      <c r="PJ4" s="1894"/>
+      <c r="PK4" s="1895"/>
+      <c r="PL4" s="1896"/>
+      <c r="PM4" s="1897"/>
+      <c r="PN4" s="1898"/>
+      <c r="PO4" s="1899"/>
+      <c r="PP4" s="1900"/>
+      <c r="PQ4" s="1901"/>
+      <c r="PR4" s="1902"/>
+      <c r="PS4" s="1903"/>
+      <c r="PT4" t="s" s="1904">
         <v>41</v>
       </c>
-      <c r="PU4" s="1881"/>
-      <c r="PV4" s="1882"/>
-      <c r="PW4" s="1883"/>
-      <c r="PX4" s="1884"/>
-      <c r="PY4" s="1885"/>
-      <c r="PZ4" s="1886"/>
-      <c r="QA4" s="1887"/>
-      <c r="QB4" s="1888"/>
-      <c r="QC4" s="1889"/>
-      <c r="QD4" s="1890"/>
-      <c r="QE4" s="1891"/>
-      <c r="QF4" t="s" s="1892">
+      <c r="PU4" s="1905"/>
+      <c r="PV4" s="1906"/>
+      <c r="PW4" s="1907"/>
+      <c r="PX4" s="1908"/>
+      <c r="PY4" s="1909"/>
+      <c r="PZ4" s="1910"/>
+      <c r="QA4" s="1911"/>
+      <c r="QB4" s="1912"/>
+      <c r="QC4" s="1913"/>
+      <c r="QD4" s="1914"/>
+      <c r="QE4" s="1915"/>
+      <c r="QF4" t="s" s="1916">
         <v>42</v>
       </c>
-      <c r="QG4" s="1893"/>
-      <c r="QH4" s="1894"/>
-      <c r="QI4" s="1895"/>
-      <c r="QJ4" s="1896"/>
-      <c r="QK4" s="1897"/>
-      <c r="QL4" s="1898"/>
-      <c r="QM4" s="1899"/>
-      <c r="QN4" s="1900"/>
-      <c r="QO4" s="1901"/>
-      <c r="QP4" s="1902"/>
-      <c r="QQ4" s="1903"/>
-      <c r="QR4" t="s" s="1904">
+      <c r="QG4" s="1917"/>
+      <c r="QH4" s="1918"/>
+      <c r="QI4" s="1919"/>
+      <c r="QJ4" s="1920"/>
+      <c r="QK4" s="1921"/>
+      <c r="QL4" s="1922"/>
+      <c r="QM4" s="1923"/>
+      <c r="QN4" s="1924"/>
+      <c r="QO4" s="1925"/>
+      <c r="QP4" s="1926"/>
+      <c r="QQ4" s="1927"/>
+      <c r="QR4" t="s" s="1928">
         <v>43</v>
       </c>
-      <c r="QS4" s="1905"/>
-      <c r="QT4" s="1906"/>
-      <c r="QU4" s="1907"/>
-      <c r="QV4" s="1908"/>
-      <c r="QW4" s="1909"/>
-      <c r="QX4" s="1910"/>
-      <c r="QY4" s="1911"/>
-      <c r="QZ4" s="1912"/>
-      <c r="RA4" s="1913"/>
-      <c r="RB4" s="1914"/>
-      <c r="RC4" s="1915"/>
-      <c r="RD4" t="s" s="1916">
+      <c r="QS4" s="1929"/>
+      <c r="QT4" s="1930"/>
+      <c r="QU4" s="1931"/>
+      <c r="QV4" s="1932"/>
+      <c r="QW4" s="1933"/>
+      <c r="QX4" s="1934"/>
+      <c r="QY4" s="1935"/>
+      <c r="QZ4" s="1936"/>
+      <c r="RA4" s="1937"/>
+      <c r="RB4" s="1938"/>
+      <c r="RC4" s="1939"/>
+      <c r="RD4" t="s" s="1940">
         <v>44</v>
       </c>
-      <c r="RE4" s="1917"/>
-      <c r="RF4" s="1918"/>
-      <c r="RG4" s="1919"/>
-      <c r="RH4" s="1920"/>
-      <c r="RI4" s="1921"/>
-      <c r="RJ4" s="1922"/>
-      <c r="RK4" s="1923"/>
-      <c r="RL4" s="1924"/>
-      <c r="RM4" s="1925"/>
-      <c r="RN4" s="1926"/>
-      <c r="RO4" s="1927"/>
-      <c r="RP4" t="s" s="1928">
+      <c r="RE4" s="1941"/>
+      <c r="RF4" s="1942"/>
+      <c r="RG4" s="1943"/>
+      <c r="RH4" s="1944"/>
+      <c r="RI4" s="1945"/>
+      <c r="RJ4" s="1946"/>
+      <c r="RK4" s="1947"/>
+      <c r="RL4" s="1948"/>
+      <c r="RM4" s="1949"/>
+      <c r="RN4" s="1950"/>
+      <c r="RO4" s="1951"/>
+      <c r="RP4" t="s" s="1952">
         <v>45</v>
       </c>
-      <c r="RQ4" s="1929"/>
-      <c r="RR4" s="1930"/>
-      <c r="RS4" s="1931"/>
-      <c r="RT4" s="1932"/>
-      <c r="RU4" s="1933"/>
-      <c r="RV4" s="1934"/>
-      <c r="RW4" s="1935"/>
-      <c r="RX4" s="1936"/>
-      <c r="RY4" s="1937"/>
-      <c r="RZ4" s="1938"/>
-      <c r="SA4" s="1939"/>
-      <c r="SB4" t="s" s="1940">
+      <c r="RQ4" s="1953"/>
+      <c r="RR4" s="1954"/>
+      <c r="RS4" s="1955"/>
+      <c r="RT4" s="1956"/>
+      <c r="RU4" s="1957"/>
+      <c r="RV4" s="1958"/>
+      <c r="RW4" s="1959"/>
+      <c r="RX4" s="1960"/>
+      <c r="RY4" s="1961"/>
+      <c r="RZ4" s="1962"/>
+      <c r="SA4" s="1963"/>
+      <c r="SB4" t="s" s="1964">
         <v>46</v>
       </c>
-      <c r="SC4" s="1941"/>
-      <c r="SD4" s="1942"/>
-      <c r="SE4" s="1943"/>
-      <c r="SF4" s="1944"/>
-      <c r="SG4" s="1945"/>
-      <c r="SH4" s="1946"/>
-      <c r="SI4" s="1947"/>
-      <c r="SJ4" s="1948"/>
-      <c r="SK4" s="1949"/>
-      <c r="SL4" s="1950"/>
-      <c r="SM4" s="1951"/>
-      <c r="SN4" t="s" s="1952">
+      <c r="SC4" s="1965"/>
+      <c r="SD4" s="1966"/>
+      <c r="SE4" s="1967"/>
+      <c r="SF4" s="1968"/>
+      <c r="SG4" s="1969"/>
+      <c r="SH4" s="1970"/>
+      <c r="SI4" s="1971"/>
+      <c r="SJ4" s="1972"/>
+      <c r="SK4" s="1973"/>
+      <c r="SL4" s="1974"/>
+      <c r="SM4" s="1975"/>
+      <c r="SN4" t="s" s="1976">
         <v>47</v>
       </c>
-      <c r="SO4" s="1953"/>
-      <c r="SP4" s="1954"/>
-      <c r="SQ4" s="1955"/>
-      <c r="SR4" s="1956"/>
-      <c r="SS4" s="1957"/>
-      <c r="ST4" s="1958"/>
-      <c r="SU4" s="1959"/>
-      <c r="SV4" s="1960"/>
-      <c r="SW4" s="1961"/>
-      <c r="SX4" s="1962"/>
-      <c r="SY4" s="1963"/>
-      <c r="SZ4" t="s" s="1964">
+      <c r="SO4" s="1977"/>
+      <c r="SP4" s="1978"/>
+      <c r="SQ4" s="1979"/>
+      <c r="SR4" s="1980"/>
+      <c r="SS4" s="1981"/>
+      <c r="ST4" s="1982"/>
+      <c r="SU4" s="1983"/>
+      <c r="SV4" s="1984"/>
+      <c r="SW4" s="1985"/>
+      <c r="SX4" s="1986"/>
+      <c r="SY4" s="1987"/>
+      <c r="SZ4" t="s" s="1988">
         <v>48</v>
       </c>
-      <c r="TA4" s="1965"/>
-      <c r="TB4" s="1966"/>
-      <c r="TC4" s="1967"/>
-      <c r="TD4" s="1968"/>
-      <c r="TE4" s="1969"/>
-      <c r="TF4" s="1970"/>
-      <c r="TG4" s="1971"/>
-      <c r="TH4" s="1972"/>
-      <c r="TI4" s="1973"/>
-      <c r="TJ4" s="1974"/>
-      <c r="TK4" s="1975"/>
-      <c r="TL4" t="s" s="1976">
+      <c r="TA4" s="1989"/>
+      <c r="TB4" s="1990"/>
+      <c r="TC4" s="1991"/>
+      <c r="TD4" s="1992"/>
+      <c r="TE4" s="1993"/>
+      <c r="TF4" s="1994"/>
+      <c r="TG4" s="1995"/>
+      <c r="TH4" s="1996"/>
+      <c r="TI4" s="1997"/>
+      <c r="TJ4" s="1998"/>
+      <c r="TK4" s="1999"/>
+      <c r="TL4" t="s" s="2000">
         <v>49</v>
       </c>
-      <c r="TM4" s="1977"/>
-      <c r="TN4" s="1978"/>
-      <c r="TO4" s="1979"/>
-      <c r="TP4" s="1980"/>
-      <c r="TQ4" s="1981"/>
-      <c r="TR4" s="1982"/>
-      <c r="TS4" s="1983"/>
-      <c r="TT4" s="1984"/>
-      <c r="TU4" s="1985"/>
-      <c r="TV4" s="1986"/>
-      <c r="TW4" s="1987"/>
-      <c r="TX4" t="s" s="1988">
+      <c r="TM4" s="2001"/>
+      <c r="TN4" s="2002"/>
+      <c r="TO4" s="2003"/>
+      <c r="TP4" s="2004"/>
+      <c r="TQ4" s="2005"/>
+      <c r="TR4" s="2006"/>
+      <c r="TS4" s="2007"/>
+      <c r="TT4" s="2008"/>
+      <c r="TU4" s="2009"/>
+      <c r="TV4" s="2010"/>
+      <c r="TW4" s="2011"/>
+      <c r="TX4" t="s" s="2012">
         <v>50</v>
       </c>
-      <c r="TY4" s="1989"/>
-      <c r="TZ4" s="1990"/>
-      <c r="UA4" s="1991"/>
-      <c r="UB4" s="1992"/>
-      <c r="UC4" s="1993"/>
-      <c r="UD4" s="1994"/>
-      <c r="UE4" s="1995"/>
-      <c r="UF4" s="1996"/>
-      <c r="UG4" s="1997"/>
-      <c r="UH4" s="1998"/>
-      <c r="UI4" s="1999"/>
-      <c r="UJ4" t="s" s="2000">
+      <c r="TY4" s="2013"/>
+      <c r="TZ4" s="2014"/>
+      <c r="UA4" s="2015"/>
+      <c r="UB4" s="2016"/>
+      <c r="UC4" s="2017"/>
+      <c r="UD4" s="2018"/>
+      <c r="UE4" s="2019"/>
+      <c r="UF4" s="2020"/>
+      <c r="UG4" s="2021"/>
+      <c r="UH4" s="2022"/>
+      <c r="UI4" s="2023"/>
+      <c r="UJ4" t="s" s="2024">
         <v>51</v>
       </c>
-      <c r="UK4" s="2001"/>
-      <c r="UL4" s="2002"/>
-      <c r="UM4" s="2003"/>
-      <c r="UN4" s="2004"/>
-      <c r="UO4" s="2005"/>
-      <c r="UP4" s="2006"/>
-      <c r="UQ4" s="2007"/>
-      <c r="UR4" s="2008"/>
-      <c r="US4" s="2009"/>
-      <c r="UT4" s="2010"/>
-      <c r="UU4" s="2011"/>
-      <c r="UV4" t="s" s="2012">
+      <c r="UK4" s="2025"/>
+      <c r="UL4" s="2026"/>
+      <c r="UM4" s="2027"/>
+      <c r="UN4" s="2028"/>
+      <c r="UO4" s="2029"/>
+      <c r="UP4" s="2030"/>
+      <c r="UQ4" s="2031"/>
+      <c r="UR4" s="2032"/>
+      <c r="US4" s="2033"/>
+      <c r="UT4" s="2034"/>
+      <c r="UU4" s="2035"/>
+      <c r="UV4" t="s" s="2036">
         <v>52</v>
       </c>
-      <c r="UW4" s="2013"/>
-      <c r="UX4" s="2014"/>
-      <c r="UY4" s="2015"/>
-      <c r="UZ4" s="2016"/>
-      <c r="VA4" s="2017"/>
-      <c r="VB4" s="2018"/>
-      <c r="VC4" s="2019"/>
-      <c r="VD4" s="2020"/>
-      <c r="VE4" s="2021"/>
-      <c r="VF4" s="2022"/>
-      <c r="VG4" s="2023"/>
-      <c r="VH4" t="s" s="2024">
+      <c r="UW4" s="2037"/>
+      <c r="UX4" s="2038"/>
+      <c r="UY4" s="2039"/>
+      <c r="UZ4" s="2040"/>
+      <c r="VA4" s="2041"/>
+      <c r="VB4" s="2042"/>
+      <c r="VC4" s="2043"/>
+      <c r="VD4" s="2044"/>
+      <c r="VE4" s="2045"/>
+      <c r="VF4" s="2046"/>
+      <c r="VG4" s="2047"/>
+      <c r="VH4" t="s" s="2048">
         <v>53</v>
       </c>
-      <c r="VI4" s="2025"/>
-      <c r="VJ4" s="2026"/>
-      <c r="VK4" s="2027"/>
-      <c r="VL4" s="2028"/>
-      <c r="VM4" s="2029"/>
-      <c r="VN4" s="2030"/>
-      <c r="VO4" s="2031"/>
-      <c r="VP4" s="2032"/>
-      <c r="VQ4" s="2033"/>
-      <c r="VR4" s="2034"/>
-      <c r="VS4" s="2035"/>
-      <c r="VT4" t="s" s="2036">
+      <c r="VI4" s="2049"/>
+      <c r="VJ4" s="2050"/>
+      <c r="VK4" s="2051"/>
+      <c r="VL4" s="2052"/>
+      <c r="VM4" s="2053"/>
+      <c r="VN4" s="2054"/>
+      <c r="VO4" s="2055"/>
+      <c r="VP4" s="2056"/>
+      <c r="VQ4" s="2057"/>
+      <c r="VR4" s="2058"/>
+      <c r="VS4" s="2059"/>
+      <c r="VT4" t="s" s="2060">
         <v>54</v>
       </c>
-      <c r="VU4" s="2037"/>
-      <c r="VV4" s="2038"/>
-      <c r="VW4" s="2039"/>
-      <c r="VX4" s="2040"/>
-      <c r="VY4" s="2041"/>
-      <c r="VZ4" s="2042"/>
-      <c r="WA4" s="2043"/>
-      <c r="WB4" s="2044"/>
-      <c r="WC4" s="2045"/>
-      <c r="WD4" s="2046"/>
-      <c r="WE4" s="2047"/>
-      <c r="WF4" t="s" s="2048">
+      <c r="VU4" s="2061"/>
+      <c r="VV4" s="2062"/>
+      <c r="VW4" s="2063"/>
+      <c r="VX4" s="2064"/>
+      <c r="VY4" s="2065"/>
+      <c r="VZ4" s="2066"/>
+      <c r="WA4" s="2067"/>
+      <c r="WB4" s="2068"/>
+      <c r="WC4" s="2069"/>
+      <c r="WD4" s="2070"/>
+      <c r="WE4" s="2071"/>
+      <c r="WF4" t="s" s="2072">
         <v>55</v>
       </c>
-      <c r="WG4" s="2049"/>
-      <c r="WH4" s="2050"/>
-      <c r="WI4" s="2051"/>
-      <c r="WJ4" s="2052"/>
-      <c r="WK4" s="2053"/>
-      <c r="WL4" s="2054"/>
-      <c r="WM4" s="2055"/>
-      <c r="WN4" s="2056"/>
-      <c r="WO4" s="2057"/>
-      <c r="WP4" s="2058"/>
-      <c r="WQ4" s="2059"/>
-      <c r="WR4" t="s" s="2060">
+      <c r="WG4" s="2073"/>
+      <c r="WH4" s="2074"/>
+      <c r="WI4" s="2075"/>
+      <c r="WJ4" s="2076"/>
+      <c r="WK4" s="2077"/>
+      <c r="WL4" s="2078"/>
+      <c r="WM4" s="2079"/>
+      <c r="WN4" s="2080"/>
+      <c r="WO4" s="2081"/>
+      <c r="WP4" s="2082"/>
+      <c r="WQ4" s="2083"/>
+      <c r="WR4" t="s" s="2084">
         <v>56</v>
       </c>
-      <c r="WS4" s="2061"/>
-      <c r="WT4" s="2062"/>
-      <c r="WU4" s="2063"/>
-      <c r="WV4" s="2064"/>
-      <c r="WW4" s="2065"/>
-      <c r="WX4" s="2066"/>
-      <c r="WY4" s="2067"/>
-      <c r="WZ4" s="2068"/>
-      <c r="XA4" s="2069"/>
-      <c r="XB4" s="2070"/>
-      <c r="XC4" s="2071"/>
-      <c r="XD4" t="s" s="2072">
+      <c r="WS4" s="2085"/>
+      <c r="WT4" s="2086"/>
+      <c r="WU4" s="2087"/>
+      <c r="WV4" s="2088"/>
+      <c r="WW4" s="2089"/>
+      <c r="WX4" s="2090"/>
+      <c r="WY4" s="2091"/>
+      <c r="WZ4" s="2092"/>
+      <c r="XA4" s="2093"/>
+      <c r="XB4" s="2094"/>
+      <c r="XC4" s="2095"/>
+      <c r="XD4" t="s" s="2096">
         <v>57</v>
       </c>
-      <c r="XE4" s="2073"/>
-      <c r="XF4" s="2074"/>
-      <c r="XG4" s="2075"/>
-      <c r="XH4" s="2076"/>
-      <c r="XI4" s="2077"/>
-      <c r="XJ4" s="2078"/>
-      <c r="XK4" s="2079"/>
-      <c r="XL4" s="2080"/>
-      <c r="XM4" s="2081"/>
-      <c r="XN4" s="2082"/>
-      <c r="XO4" s="2083"/>
-      <c r="XP4" t="s" s="2084">
+      <c r="XE4" s="2097"/>
+      <c r="XF4" s="2098"/>
+      <c r="XG4" s="2099"/>
+      <c r="XH4" s="2100"/>
+      <c r="XI4" s="2101"/>
+      <c r="XJ4" s="2102"/>
+      <c r="XK4" s="2103"/>
+      <c r="XL4" s="2104"/>
+      <c r="XM4" s="2105"/>
+      <c r="XN4" s="2106"/>
+      <c r="XO4" s="2107"/>
+      <c r="XP4" t="s" s="2108">
         <v>58</v>
       </c>
-      <c r="XQ4" s="2085"/>
-      <c r="XR4" s="2086"/>
-      <c r="XS4" s="2087"/>
-      <c r="XT4" s="2088"/>
-      <c r="XU4" s="2089"/>
-      <c r="XV4" s="2090"/>
-      <c r="XW4" s="2091"/>
-      <c r="XX4" s="2092"/>
-      <c r="XY4" s="2093"/>
-      <c r="XZ4" s="2094"/>
-      <c r="YA4" s="2095"/>
-      <c r="YB4" t="s" s="2096">
+      <c r="XQ4" s="2109"/>
+      <c r="XR4" s="2110"/>
+      <c r="XS4" s="2111"/>
+      <c r="XT4" s="2112"/>
+      <c r="XU4" s="2113"/>
+      <c r="XV4" s="2114"/>
+      <c r="XW4" s="2115"/>
+      <c r="XX4" s="2116"/>
+      <c r="XY4" s="2117"/>
+      <c r="XZ4" s="2118"/>
+      <c r="YA4" s="2119"/>
+      <c r="YB4" t="s" s="2120">
         <v>59</v>
       </c>
-      <c r="YC4" s="2097"/>
-      <c r="YD4" s="2098"/>
-      <c r="YE4" s="2099"/>
-      <c r="YF4" s="2100"/>
-      <c r="YG4" s="2101"/>
-      <c r="YH4" s="2102"/>
-      <c r="YI4" s="2103"/>
-      <c r="YJ4" s="2104"/>
-      <c r="YK4" s="2105"/>
-      <c r="YL4" s="2106"/>
-      <c r="YM4" s="2107"/>
-      <c r="YN4" t="s" s="2108">
+      <c r="YC4" s="2121"/>
+      <c r="YD4" s="2122"/>
+      <c r="YE4" s="2123"/>
+      <c r="YF4" s="2124"/>
+      <c r="YG4" s="2125"/>
+      <c r="YH4" s="2126"/>
+      <c r="YI4" s="2127"/>
+      <c r="YJ4" s="2128"/>
+      <c r="YK4" s="2129"/>
+      <c r="YL4" s="2130"/>
+      <c r="YM4" s="2131"/>
+      <c r="YN4" t="s" s="2132">
         <v>60</v>
       </c>
-      <c r="YO4" s="2109"/>
-      <c r="YP4" s="2110"/>
-      <c r="YQ4" s="2111"/>
-      <c r="YR4" s="2112"/>
-      <c r="YS4" s="2113"/>
-      <c r="YT4" s="2114"/>
-      <c r="YU4" s="2115"/>
-      <c r="YV4" s="2116"/>
-      <c r="YW4" s="2117"/>
-      <c r="YX4" s="2118"/>
-      <c r="YY4" s="2119"/>
-      <c r="YZ4" t="s" s="2120">
+      <c r="YO4" s="2133"/>
+      <c r="YP4" s="2134"/>
+      <c r="YQ4" s="2135"/>
+      <c r="YR4" s="2136"/>
+      <c r="YS4" s="2137"/>
+      <c r="YT4" s="2138"/>
+      <c r="YU4" s="2139"/>
+      <c r="YV4" s="2140"/>
+      <c r="YW4" s="2141"/>
+      <c r="YX4" s="2142"/>
+      <c r="YY4" s="2143"/>
+      <c r="YZ4" t="s" s="2144">
         <v>61</v>
       </c>
-      <c r="ZA4" s="2121"/>
-      <c r="ZB4" s="2122"/>
-      <c r="ZC4" s="2123"/>
-      <c r="ZD4" s="2124"/>
-      <c r="ZE4" s="2125"/>
-      <c r="ZF4" s="2126"/>
-      <c r="ZG4" s="2127"/>
-      <c r="ZH4" s="2128"/>
-      <c r="ZI4" s="2129"/>
-      <c r="ZJ4" s="2130"/>
-      <c r="ZK4" s="2131"/>
-      <c r="ZL4" t="s" s="2132">
+      <c r="ZA4" s="2145"/>
+      <c r="ZB4" s="2146"/>
+      <c r="ZC4" s="2147"/>
+      <c r="ZD4" s="2148"/>
+      <c r="ZE4" s="2149"/>
+      <c r="ZF4" s="2150"/>
+      <c r="ZG4" s="2151"/>
+      <c r="ZH4" s="2152"/>
+      <c r="ZI4" s="2153"/>
+      <c r="ZJ4" s="2154"/>
+      <c r="ZK4" s="2155"/>
+      <c r="ZL4" t="s" s="2156">
         <v>62</v>
       </c>
-      <c r="ZM4" s="2133"/>
-      <c r="ZN4" s="2134"/>
-      <c r="ZO4" s="2135"/>
-      <c r="ZP4" s="2136"/>
-      <c r="ZQ4" s="2137"/>
-      <c r="ZR4" s="2138"/>
-      <c r="ZS4" s="2139"/>
-      <c r="ZT4" s="2140"/>
-      <c r="ZU4" s="2141"/>
-      <c r="ZV4" s="2142"/>
-      <c r="ZW4" s="2143"/>
-      <c r="ZX4" t="s" s="2144">
+      <c r="ZM4" s="2157"/>
+      <c r="ZN4" s="2158"/>
+      <c r="ZO4" s="2159"/>
+      <c r="ZP4" s="2160"/>
+      <c r="ZQ4" s="2161"/>
+      <c r="ZR4" s="2162"/>
+      <c r="ZS4" s="2163"/>
+      <c r="ZT4" s="2164"/>
+      <c r="ZU4" s="2165"/>
+      <c r="ZV4" s="2166"/>
+      <c r="ZW4" s="2167"/>
+      <c r="ZX4" t="s" s="2168">
         <v>63</v>
       </c>
-      <c r="ZY4" s="2145"/>
-      <c r="ZZ4" s="2146"/>
-      <c r="AAA4" s="2147"/>
-      <c r="AAB4" s="2148"/>
-      <c r="AAC4" s="2149"/>
-      <c r="AAD4" s="2150"/>
-      <c r="AAE4" s="2151"/>
-      <c r="AAF4" s="2152"/>
-      <c r="AAG4" s="2153"/>
-      <c r="AAH4" s="2154"/>
-      <c r="AAI4" s="2155"/>
+      <c r="ZY4" s="2169"/>
+      <c r="ZZ4" s="2170"/>
+      <c r="AAA4" s="2171"/>
+      <c r="AAB4" s="2172"/>
+      <c r="AAC4" s="2173"/>
+      <c r="AAD4" s="2174"/>
+      <c r="AAE4" s="2175"/>
+      <c r="AAF4" s="2176"/>
+      <c r="AAG4" s="2177"/>
+      <c r="AAH4" s="2178"/>
+      <c r="AAI4" s="2179"/>
+      <c r="AAJ4" t="s" s="2180">
+        <v>64</v>
+      </c>
+      <c r="AAK4" s="2181"/>
+      <c r="AAL4" s="2182"/>
+      <c r="AAM4" s="2183"/>
+      <c r="AAN4" s="2184"/>
+      <c r="AAO4" s="2185"/>
+      <c r="AAP4" s="2186"/>
+      <c r="AAQ4" s="2187"/>
+      <c r="AAR4" s="2188"/>
+      <c r="AAS4" s="2189"/>
+      <c r="AAT4" s="2190"/>
+      <c r="AAU4" s="2191"/>
     </row>
     <row r="5">
-      <c r="A5" s="2156"/>
-      <c r="B5" s="2157"/>
-      <c r="C5" s="2158"/>
-      <c r="D5" t="s" s="2159">
-        <v>64</v>
-      </c>
-      <c r="E5" t="s" s="2160">
+      <c r="A5" s="2192"/>
+      <c r="B5" s="2193"/>
+      <c r="C5" s="2194"/>
+      <c r="D5" t="s" s="2195">
         <v>65</v>
       </c>
-      <c r="F5" t="s" s="2161">
+      <c r="E5" t="s" s="2196">
         <v>66</v>
       </c>
-      <c r="G5" t="s" s="2162">
+      <c r="F5" t="s" s="2197">
         <v>67</v>
       </c>
-      <c r="H5" t="s" s="2163">
+      <c r="G5" t="s" s="2198">
         <v>68</v>
       </c>
-      <c r="I5" t="s" s="2164">
+      <c r="H5" t="s" s="2199">
         <v>69</v>
       </c>
-      <c r="J5" t="s" s="2165">
+      <c r="I5" t="s" s="2200">
         <v>70</v>
       </c>
-      <c r="K5" t="s" s="2166">
+      <c r="J5" t="s" s="2201">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2167">
+      <c r="K5" t="s" s="2202">
         <v>72</v>
       </c>
-      <c r="M5" t="s" s="2168">
+      <c r="L5" t="s" s="2203">
         <v>73</v>
       </c>
-      <c r="N5" t="s" s="2169">
+      <c r="M5" t="s" s="2204">
         <v>74</v>
       </c>
-      <c r="O5" t="s" s="2170">
+      <c r="N5" t="s" s="2205">
         <v>75</v>
       </c>
-      <c r="P5" t="s" s="2171">
-        <v>64</v>
-      </c>
-      <c r="Q5" t="s" s="2172">
+      <c r="O5" t="s" s="2206">
+        <v>76</v>
+      </c>
+      <c r="P5" t="s" s="2207">
         <v>65</v>
       </c>
-      <c r="R5" t="s" s="2173">
+      <c r="Q5" t="s" s="2208">
         <v>66</v>
       </c>
-      <c r="S5" t="s" s="2174">
+      <c r="R5" t="s" s="2209">
         <v>67</v>
       </c>
-      <c r="T5" t="s" s="2175">
+      <c r="S5" t="s" s="2210">
         <v>68</v>
       </c>
-      <c r="U5" t="s" s="2176">
+      <c r="T5" t="s" s="2211">
         <v>69</v>
       </c>
-      <c r="V5" t="s" s="2177">
+      <c r="U5" t="s" s="2212">
         <v>70</v>
       </c>
-      <c r="W5" t="s" s="2178">
+      <c r="V5" t="s" s="2213">
         <v>71</v>
       </c>
-      <c r="X5" t="s" s="2179">
+      <c r="W5" t="s" s="2214">
         <v>72</v>
       </c>
-      <c r="Y5" t="s" s="2180">
+      <c r="X5" t="s" s="2215">
         <v>73</v>
       </c>
-      <c r="Z5" t="s" s="2181">
+      <c r="Y5" t="s" s="2216">
         <v>74</v>
       </c>
-      <c r="AA5" t="s" s="2182">
+      <c r="Z5" t="s" s="2217">
         <v>75</v>
       </c>
-      <c r="AB5" t="s" s="2183">
-        <v>64</v>
-      </c>
-      <c r="AC5" t="s" s="2184">
+      <c r="AA5" t="s" s="2218">
+        <v>76</v>
+      </c>
+      <c r="AB5" t="s" s="2219">
         <v>65</v>
       </c>
-      <c r="AD5" t="s" s="2185">
+      <c r="AC5" t="s" s="2220">
         <v>66</v>
       </c>
-      <c r="AE5" t="s" s="2186">
+      <c r="AD5" t="s" s="2221">
         <v>67</v>
       </c>
-      <c r="AF5" t="s" s="2187">
+      <c r="AE5" t="s" s="2222">
         <v>68</v>
       </c>
-      <c r="AG5" t="s" s="2188">
+      <c r="AF5" t="s" s="2223">
         <v>69</v>
       </c>
-      <c r="AH5" t="s" s="2189">
+      <c r="AG5" t="s" s="2224">
         <v>70</v>
       </c>
-      <c r="AI5" t="s" s="2190">
+      <c r="AH5" t="s" s="2225">
         <v>71</v>
       </c>
-      <c r="AJ5" t="s" s="2191">
+      <c r="AI5" t="s" s="2226">
         <v>72</v>
       </c>
-      <c r="AK5" t="s" s="2192">
+      <c r="AJ5" t="s" s="2227">
         <v>73</v>
       </c>
-      <c r="AL5" t="s" s="2193">
+      <c r="AK5" t="s" s="2228">
         <v>74</v>
       </c>
-      <c r="AM5" t="s" s="2194">
+      <c r="AL5" t="s" s="2229">
         <v>75</v>
       </c>
-      <c r="AN5" t="s" s="2195">
-        <v>64</v>
-      </c>
-      <c r="AO5" t="s" s="2196">
+      <c r="AM5" t="s" s="2230">
+        <v>76</v>
+      </c>
+      <c r="AN5" t="s" s="2231">
         <v>65</v>
       </c>
-      <c r="AP5" t="s" s="2197">
+      <c r="AO5" t="s" s="2232">
         <v>66</v>
       </c>
-      <c r="AQ5" t="s" s="2198">
+      <c r="AP5" t="s" s="2233">
         <v>67</v>
       </c>
-      <c r="AR5" t="s" s="2199">
+      <c r="AQ5" t="s" s="2234">
         <v>68</v>
       </c>
-      <c r="AS5" t="s" s="2200">
+      <c r="AR5" t="s" s="2235">
         <v>69</v>
       </c>
-      <c r="AT5" t="s" s="2201">
+      <c r="AS5" t="s" s="2236">
         <v>70</v>
       </c>
-      <c r="AU5" t="s" s="2202">
+      <c r="AT5" t="s" s="2237">
         <v>71</v>
       </c>
-      <c r="AV5" t="s" s="2203">
+      <c r="AU5" t="s" s="2238">
         <v>72</v>
       </c>
-      <c r="AW5" t="s" s="2204">
+      <c r="AV5" t="s" s="2239">
         <v>73</v>
       </c>
-      <c r="AX5" t="s" s="2205">
+      <c r="AW5" t="s" s="2240">
         <v>74</v>
       </c>
-      <c r="AY5" t="s" s="2206">
+      <c r="AX5" t="s" s="2241">
         <v>75</v>
       </c>
-      <c r="AZ5" t="s" s="2207">
-        <v>64</v>
-      </c>
-      <c r="BA5" t="s" s="2208">
+      <c r="AY5" t="s" s="2242">
+        <v>76</v>
+      </c>
+      <c r="AZ5" t="s" s="2243">
         <v>65</v>
       </c>
-      <c r="BB5" t="s" s="2209">
+      <c r="BA5" t="s" s="2244">
         <v>66</v>
       </c>
-      <c r="BC5" t="s" s="2210">
+      <c r="BB5" t="s" s="2245">
         <v>67</v>
       </c>
-      <c r="BD5" t="s" s="2211">
+      <c r="BC5" t="s" s="2246">
         <v>68</v>
       </c>
-      <c r="BE5" t="s" s="2212">
+      <c r="BD5" t="s" s="2247">
         <v>69</v>
       </c>
-      <c r="BF5" t="s" s="2213">
+      <c r="BE5" t="s" s="2248">
         <v>70</v>
       </c>
-      <c r="BG5" t="s" s="2214">
+      <c r="BF5" t="s" s="2249">
         <v>71</v>
       </c>
-      <c r="BH5" t="s" s="2215">
+      <c r="BG5" t="s" s="2250">
         <v>72</v>
       </c>
-      <c r="BI5" t="s" s="2216">
+      <c r="BH5" t="s" s="2251">
         <v>73</v>
       </c>
-      <c r="BJ5" t="s" s="2217">
+      <c r="BI5" t="s" s="2252">
         <v>74</v>
       </c>
-      <c r="BK5" t="s" s="2218">
+      <c r="BJ5" t="s" s="2253">
         <v>75</v>
       </c>
-      <c r="BL5" t="s" s="2219">
-        <v>64</v>
-      </c>
-      <c r="BM5" t="s" s="2220">
+      <c r="BK5" t="s" s="2254">
+        <v>76</v>
+      </c>
+      <c r="BL5" t="s" s="2255">
         <v>65</v>
       </c>
-      <c r="BN5" t="s" s="2221">
+      <c r="BM5" t="s" s="2256">
         <v>66</v>
       </c>
-      <c r="BO5" t="s" s="2222">
+      <c r="BN5" t="s" s="2257">
         <v>67</v>
       </c>
-      <c r="BP5" t="s" s="2223">
+      <c r="BO5" t="s" s="2258">
         <v>68</v>
       </c>
-      <c r="BQ5" t="s" s="2224">
+      <c r="BP5" t="s" s="2259">
         <v>69</v>
       </c>
-      <c r="BR5" t="s" s="2225">
+      <c r="BQ5" t="s" s="2260">
         <v>70</v>
       </c>
-      <c r="BS5" t="s" s="2226">
+      <c r="BR5" t="s" s="2261">
         <v>71</v>
       </c>
-      <c r="BT5" t="s" s="2227">
+      <c r="BS5" t="s" s="2262">
         <v>72</v>
       </c>
-      <c r="BU5" t="s" s="2228">
+      <c r="BT5" t="s" s="2263">
         <v>73</v>
       </c>
-      <c r="BV5" t="s" s="2229">
+      <c r="BU5" t="s" s="2264">
         <v>74</v>
       </c>
-      <c r="BW5" t="s" s="2230">
+      <c r="BV5" t="s" s="2265">
         <v>75</v>
       </c>
-      <c r="BX5" t="s" s="2231">
-        <v>64</v>
-      </c>
-      <c r="BY5" t="s" s="2232">
+      <c r="BW5" t="s" s="2266">
+        <v>76</v>
+      </c>
+      <c r="BX5" t="s" s="2267">
         <v>65</v>
       </c>
-      <c r="BZ5" t="s" s="2233">
+      <c r="BY5" t="s" s="2268">
         <v>66</v>
       </c>
-      <c r="CA5" t="s" s="2234">
+      <c r="BZ5" t="s" s="2269">
         <v>67</v>
       </c>
-      <c r="CB5" t="s" s="2235">
+      <c r="CA5" t="s" s="2270">
         <v>68</v>
       </c>
-      <c r="CC5" t="s" s="2236">
+      <c r="CB5" t="s" s="2271">
         <v>69</v>
       </c>
-      <c r="CD5" t="s" s="2237">
+      <c r="CC5" t="s" s="2272">
         <v>70</v>
       </c>
-      <c r="CE5" t="s" s="2238">
+      <c r="CD5" t="s" s="2273">
         <v>71</v>
       </c>
-      <c r="CF5" t="s" s="2239">
+      <c r="CE5" t="s" s="2274">
         <v>72</v>
       </c>
-      <c r="CG5" t="s" s="2240">
+      <c r="CF5" t="s" s="2275">
         <v>73</v>
       </c>
-      <c r="CH5" t="s" s="2241">
+      <c r="CG5" t="s" s="2276">
         <v>74</v>
       </c>
-      <c r="CI5" t="s" s="2242">
+      <c r="CH5" t="s" s="2277">
         <v>75</v>
       </c>
-      <c r="CJ5" t="s" s="2243">
-        <v>64</v>
-      </c>
-      <c r="CK5" t="s" s="2244">
+      <c r="CI5" t="s" s="2278">
+        <v>76</v>
+      </c>
+      <c r="CJ5" t="s" s="2279">
         <v>65</v>
       </c>
-      <c r="CL5" t="s" s="2245">
+      <c r="CK5" t="s" s="2280">
         <v>66</v>
       </c>
-      <c r="CM5" t="s" s="2246">
+      <c r="CL5" t="s" s="2281">
         <v>67</v>
       </c>
-      <c r="CN5" t="s" s="2247">
+      <c r="CM5" t="s" s="2282">
         <v>68</v>
       </c>
-      <c r="CO5" t="s" s="2248">
+      <c r="CN5" t="s" s="2283">
         <v>69</v>
       </c>
-      <c r="CP5" t="s" s="2249">
+      <c r="CO5" t="s" s="2284">
         <v>70</v>
       </c>
-      <c r="CQ5" t="s" s="2250">
+      <c r="CP5" t="s" s="2285">
         <v>71</v>
       </c>
-      <c r="CR5" t="s" s="2251">
+      <c r="CQ5" t="s" s="2286">
         <v>72</v>
       </c>
-      <c r="CS5" t="s" s="2252">
+      <c r="CR5" t="s" s="2287">
         <v>73</v>
       </c>
-      <c r="CT5" t="s" s="2253">
+      <c r="CS5" t="s" s="2288">
         <v>74</v>
       </c>
-      <c r="CU5" t="s" s="2254">
+      <c r="CT5" t="s" s="2289">
         <v>75</v>
       </c>
-      <c r="CV5" t="s" s="2255">
-        <v>64</v>
-      </c>
-      <c r="CW5" t="s" s="2256">
+      <c r="CU5" t="s" s="2290">
+        <v>76</v>
+      </c>
+      <c r="CV5" t="s" s="2291">
         <v>65</v>
       </c>
-      <c r="CX5" t="s" s="2257">
+      <c r="CW5" t="s" s="2292">
         <v>66</v>
       </c>
-      <c r="CY5" t="s" s="2258">
+      <c r="CX5" t="s" s="2293">
         <v>67</v>
       </c>
-      <c r="CZ5" t="s" s="2259">
+      <c r="CY5" t="s" s="2294">
         <v>68</v>
       </c>
-      <c r="DA5" t="s" s="2260">
+      <c r="CZ5" t="s" s="2295">
         <v>69</v>
       </c>
-      <c r="DB5" t="s" s="2261">
+      <c r="DA5" t="s" s="2296">
         <v>70</v>
       </c>
-      <c r="DC5" t="s" s="2262">
+      <c r="DB5" t="s" s="2297">
         <v>71</v>
       </c>
-      <c r="DD5" t="s" s="2263">
+      <c r="DC5" t="s" s="2298">
         <v>72</v>
       </c>
-      <c r="DE5" t="s" s="2264">
+      <c r="DD5" t="s" s="2299">
         <v>73</v>
       </c>
-      <c r="DF5" t="s" s="2265">
+      <c r="DE5" t="s" s="2300">
         <v>74</v>
       </c>
-      <c r="DG5" t="s" s="2266">
+      <c r="DF5" t="s" s="2301">
         <v>75</v>
       </c>
-      <c r="DH5" t="s" s="2267">
-        <v>64</v>
-      </c>
-      <c r="DI5" t="s" s="2268">
+      <c r="DG5" t="s" s="2302">
+        <v>76</v>
+      </c>
+      <c r="DH5" t="s" s="2303">
         <v>65</v>
       </c>
-      <c r="DJ5" t="s" s="2269">
+      <c r="DI5" t="s" s="2304">
         <v>66</v>
       </c>
-      <c r="DK5" t="s" s="2270">
+      <c r="DJ5" t="s" s="2305">
         <v>67</v>
       </c>
-      <c r="DL5" t="s" s="2271">
+      <c r="DK5" t="s" s="2306">
         <v>68</v>
       </c>
-      <c r="DM5" t="s" s="2272">
+      <c r="DL5" t="s" s="2307">
         <v>69</v>
       </c>
-      <c r="DN5" t="s" s="2273">
+      <c r="DM5" t="s" s="2308">
         <v>70</v>
       </c>
-      <c r="DO5" t="s" s="2274">
+      <c r="DN5" t="s" s="2309">
         <v>71</v>
       </c>
-      <c r="DP5" t="s" s="2275">
+      <c r="DO5" t="s" s="2310">
         <v>72</v>
       </c>
-      <c r="DQ5" t="s" s="2276">
+      <c r="DP5" t="s" s="2311">
         <v>73</v>
       </c>
-      <c r="DR5" t="s" s="2277">
+      <c r="DQ5" t="s" s="2312">
         <v>74</v>
       </c>
-      <c r="DS5" t="s" s="2278">
+      <c r="DR5" t="s" s="2313">
         <v>75</v>
       </c>
-      <c r="DT5" t="s" s="2279">
-        <v>64</v>
-      </c>
-      <c r="DU5" t="s" s="2280">
+      <c r="DS5" t="s" s="2314">
+        <v>76</v>
+      </c>
+      <c r="DT5" t="s" s="2315">
         <v>65</v>
       </c>
-      <c r="DV5" t="s" s="2281">
+      <c r="DU5" t="s" s="2316">
         <v>66</v>
       </c>
-      <c r="DW5" t="s" s="2282">
+      <c r="DV5" t="s" s="2317">
         <v>67</v>
       </c>
-      <c r="DX5" t="s" s="2283">
+      <c r="DW5" t="s" s="2318">
         <v>68</v>
       </c>
-      <c r="DY5" t="s" s="2284">
+      <c r="DX5" t="s" s="2319">
         <v>69</v>
       </c>
-      <c r="DZ5" t="s" s="2285">
+      <c r="DY5" t="s" s="2320">
         <v>70</v>
       </c>
-      <c r="EA5" t="s" s="2286">
+      <c r="DZ5" t="s" s="2321">
         <v>71</v>
       </c>
-      <c r="EB5" t="s" s="2287">
+      <c r="EA5" t="s" s="2322">
         <v>72</v>
       </c>
-      <c r="EC5" t="s" s="2288">
+      <c r="EB5" t="s" s="2323">
         <v>73</v>
       </c>
-      <c r="ED5" t="s" s="2289">
+      <c r="EC5" t="s" s="2324">
         <v>74</v>
       </c>
-      <c r="EE5" t="s" s="2290">
+      <c r="ED5" t="s" s="2325">
         <v>75</v>
       </c>
-      <c r="EF5" t="s" s="2291">
-        <v>64</v>
-      </c>
-      <c r="EG5" t="s" s="2292">
+      <c r="EE5" t="s" s="2326">
+        <v>76</v>
+      </c>
+      <c r="EF5" t="s" s="2327">
         <v>65</v>
       </c>
-      <c r="EH5" t="s" s="2293">
+      <c r="EG5" t="s" s="2328">
         <v>66</v>
       </c>
-      <c r="EI5" t="s" s="2294">
+      <c r="EH5" t="s" s="2329">
         <v>67</v>
       </c>
-      <c r="EJ5" t="s" s="2295">
+      <c r="EI5" t="s" s="2330">
         <v>68</v>
       </c>
-      <c r="EK5" t="s" s="2296">
+      <c r="EJ5" t="s" s="2331">
         <v>69</v>
       </c>
-      <c r="EL5" t="s" s="2297">
+      <c r="EK5" t="s" s="2332">
         <v>70</v>
       </c>
-      <c r="EM5" t="s" s="2298">
+      <c r="EL5" t="s" s="2333">
         <v>71</v>
       </c>
-      <c r="EN5" t="s" s="2299">
+      <c r="EM5" t="s" s="2334">
         <v>72</v>
       </c>
-      <c r="EO5" t="s" s="2300">
+      <c r="EN5" t="s" s="2335">
         <v>73</v>
       </c>
-      <c r="EP5" t="s" s="2301">
+      <c r="EO5" t="s" s="2336">
         <v>74</v>
       </c>
-      <c r="EQ5" t="s" s="2302">
+      <c r="EP5" t="s" s="2337">
         <v>75</v>
       </c>
-      <c r="ER5" t="s" s="2303">
-        <v>64</v>
-      </c>
-      <c r="ES5" t="s" s="2304">
+      <c r="EQ5" t="s" s="2338">
+        <v>76</v>
+      </c>
+      <c r="ER5" t="s" s="2339">
         <v>65</v>
       </c>
-      <c r="ET5" t="s" s="2305">
+      <c r="ES5" t="s" s="2340">
         <v>66</v>
       </c>
-      <c r="EU5" t="s" s="2306">
+      <c r="ET5" t="s" s="2341">
         <v>67</v>
       </c>
-      <c r="EV5" t="s" s="2307">
+      <c r="EU5" t="s" s="2342">
         <v>68</v>
       </c>
-      <c r="EW5" t="s" s="2308">
+      <c r="EV5" t="s" s="2343">
         <v>69</v>
       </c>
-      <c r="EX5" t="s" s="2309">
+      <c r="EW5" t="s" s="2344">
         <v>70</v>
       </c>
-      <c r="EY5" t="s" s="2310">
+      <c r="EX5" t="s" s="2345">
         <v>71</v>
       </c>
-      <c r="EZ5" t="s" s="2311">
+      <c r="EY5" t="s" s="2346">
         <v>72</v>
       </c>
-      <c r="FA5" t="s" s="2312">
+      <c r="EZ5" t="s" s="2347">
         <v>73</v>
       </c>
-      <c r="FB5" t="s" s="2313">
+      <c r="FA5" t="s" s="2348">
         <v>74</v>
       </c>
-      <c r="FC5" t="s" s="2314">
+      <c r="FB5" t="s" s="2349">
         <v>75</v>
       </c>
-      <c r="FD5" t="s" s="2315">
-        <v>64</v>
-      </c>
-      <c r="FE5" t="s" s="2316">
+      <c r="FC5" t="s" s="2350">
+        <v>76</v>
+      </c>
+      <c r="FD5" t="s" s="2351">
         <v>65</v>
       </c>
-      <c r="FF5" t="s" s="2317">
+      <c r="FE5" t="s" s="2352">
         <v>66</v>
       </c>
-      <c r="FG5" t="s" s="2318">
+      <c r="FF5" t="s" s="2353">
         <v>67</v>
       </c>
-      <c r="FH5" t="s" s="2319">
+      <c r="FG5" t="s" s="2354">
         <v>68</v>
       </c>
-      <c r="FI5" t="s" s="2320">
+      <c r="FH5" t="s" s="2355">
         <v>69</v>
       </c>
-      <c r="FJ5" t="s" s="2321">
+      <c r="FI5" t="s" s="2356">
         <v>70</v>
       </c>
-      <c r="FK5" t="s" s="2322">
+      <c r="FJ5" t="s" s="2357">
         <v>71</v>
       </c>
-      <c r="FL5" t="s" s="2323">
+      <c r="FK5" t="s" s="2358">
         <v>72</v>
       </c>
-      <c r="FM5" t="s" s="2324">
+      <c r="FL5" t="s" s="2359">
         <v>73</v>
       </c>
-      <c r="FN5" t="s" s="2325">
+      <c r="FM5" t="s" s="2360">
         <v>74</v>
       </c>
-      <c r="FO5" t="s" s="2326">
+      <c r="FN5" t="s" s="2361">
         <v>75</v>
       </c>
-      <c r="FP5" t="s" s="2327">
-        <v>64</v>
-      </c>
-      <c r="FQ5" t="s" s="2328">
+      <c r="FO5" t="s" s="2362">
+        <v>76</v>
+      </c>
+      <c r="FP5" t="s" s="2363">
         <v>65</v>
       </c>
-      <c r="FR5" t="s" s="2329">
+      <c r="FQ5" t="s" s="2364">
         <v>66</v>
       </c>
-      <c r="FS5" t="s" s="2330">
+      <c r="FR5" t="s" s="2365">
         <v>67</v>
       </c>
-      <c r="FT5" t="s" s="2331">
+      <c r="FS5" t="s" s="2366">
         <v>68</v>
       </c>
-      <c r="FU5" t="s" s="2332">
+      <c r="FT5" t="s" s="2367">
         <v>69</v>
       </c>
-      <c r="FV5" t="s" s="2333">
+      <c r="FU5" t="s" s="2368">
         <v>70</v>
       </c>
-      <c r="FW5" t="s" s="2334">
+      <c r="FV5" t="s" s="2369">
         <v>71</v>
       </c>
-      <c r="FX5" t="s" s="2335">
+      <c r="FW5" t="s" s="2370">
         <v>72</v>
       </c>
-      <c r="FY5" t="s" s="2336">
+      <c r="FX5" t="s" s="2371">
         <v>73</v>
       </c>
-      <c r="FZ5" t="s" s="2337">
+      <c r="FY5" t="s" s="2372">
         <v>74</v>
       </c>
-      <c r="GA5" t="s" s="2338">
+      <c r="FZ5" t="s" s="2373">
         <v>75</v>
       </c>
-      <c r="GB5" t="s" s="2339">
-        <v>64</v>
-      </c>
-      <c r="GC5" t="s" s="2340">
+      <c r="GA5" t="s" s="2374">
+        <v>76</v>
+      </c>
+      <c r="GB5" t="s" s="2375">
         <v>65</v>
       </c>
-      <c r="GD5" t="s" s="2341">
+      <c r="GC5" t="s" s="2376">
         <v>66</v>
       </c>
-      <c r="GE5" t="s" s="2342">
+      <c r="GD5" t="s" s="2377">
         <v>67</v>
       </c>
-      <c r="GF5" t="s" s="2343">
+      <c r="GE5" t="s" s="2378">
         <v>68</v>
       </c>
-      <c r="GG5" t="s" s="2344">
+      <c r="GF5" t="s" s="2379">
         <v>69</v>
       </c>
-      <c r="GH5" t="s" s="2345">
+      <c r="GG5" t="s" s="2380">
         <v>70</v>
       </c>
-      <c r="GI5" t="s" s="2346">
+      <c r="GH5" t="s" s="2381">
         <v>71</v>
       </c>
-      <c r="GJ5" t="s" s="2347">
+      <c r="GI5" t="s" s="2382">
         <v>72</v>
       </c>
-      <c r="GK5" t="s" s="2348">
+      <c r="GJ5" t="s" s="2383">
         <v>73</v>
       </c>
-      <c r="GL5" t="s" s="2349">
+      <c r="GK5" t="s" s="2384">
         <v>74</v>
       </c>
-      <c r="GM5" t="s" s="2350">
+      <c r="GL5" t="s" s="2385">
         <v>75</v>
       </c>
-      <c r="GN5" t="s" s="2351">
-        <v>64</v>
-      </c>
-      <c r="GO5" t="s" s="2352">
+      <c r="GM5" t="s" s="2386">
+        <v>76</v>
+      </c>
+      <c r="GN5" t="s" s="2387">
         <v>65</v>
       </c>
-      <c r="GP5" t="s" s="2353">
+      <c r="GO5" t="s" s="2388">
         <v>66</v>
       </c>
-      <c r="GQ5" t="s" s="2354">
+      <c r="GP5" t="s" s="2389">
         <v>67</v>
       </c>
-      <c r="GR5" t="s" s="2355">
+      <c r="GQ5" t="s" s="2390">
         <v>68</v>
       </c>
-      <c r="GS5" t="s" s="2356">
+      <c r="GR5" t="s" s="2391">
         <v>69</v>
       </c>
-      <c r="GT5" t="s" s="2357">
+      <c r="GS5" t="s" s="2392">
         <v>70</v>
       </c>
-      <c r="GU5" t="s" s="2358">
+      <c r="GT5" t="s" s="2393">
         <v>71</v>
       </c>
-      <c r="GV5" t="s" s="2359">
+      <c r="GU5" t="s" s="2394">
         <v>72</v>
       </c>
-      <c r="GW5" t="s" s="2360">
+      <c r="GV5" t="s" s="2395">
         <v>73</v>
       </c>
-      <c r="GX5" t="s" s="2361">
+      <c r="GW5" t="s" s="2396">
         <v>74</v>
       </c>
-      <c r="GY5" t="s" s="2362">
+      <c r="GX5" t="s" s="2397">
         <v>75</v>
       </c>
-      <c r="GZ5" t="s" s="2363">
-        <v>64</v>
-      </c>
-      <c r="HA5" t="s" s="2364">
+      <c r="GY5" t="s" s="2398">
+        <v>76</v>
+      </c>
+      <c r="GZ5" t="s" s="2399">
         <v>65</v>
       </c>
-      <c r="HB5" t="s" s="2365">
+      <c r="HA5" t="s" s="2400">
         <v>66</v>
       </c>
-      <c r="HC5" t="s" s="2366">
+      <c r="HB5" t="s" s="2401">
         <v>67</v>
       </c>
-      <c r="HD5" t="s" s="2367">
+      <c r="HC5" t="s" s="2402">
         <v>68</v>
       </c>
-      <c r="HE5" t="s" s="2368">
+      <c r="HD5" t="s" s="2403">
         <v>69</v>
       </c>
-      <c r="HF5" t="s" s="2369">
+      <c r="HE5" t="s" s="2404">
         <v>70</v>
       </c>
-      <c r="HG5" t="s" s="2370">
+      <c r="HF5" t="s" s="2405">
         <v>71</v>
       </c>
-      <c r="HH5" t="s" s="2371">
+      <c r="HG5" t="s" s="2406">
         <v>72</v>
       </c>
-      <c r="HI5" t="s" s="2372">
+      <c r="HH5" t="s" s="2407">
         <v>73</v>
       </c>
-      <c r="HJ5" t="s" s="2373">
+      <c r="HI5" t="s" s="2408">
         <v>74</v>
       </c>
-      <c r="HK5" t="s" s="2374">
+      <c r="HJ5" t="s" s="2409">
         <v>75</v>
       </c>
-      <c r="HL5" t="s" s="2375">
-        <v>64</v>
-      </c>
-      <c r="HM5" t="s" s="2376">
+      <c r="HK5" t="s" s="2410">
+        <v>76</v>
+      </c>
+      <c r="HL5" t="s" s="2411">
         <v>65</v>
       </c>
-      <c r="HN5" t="s" s="2377">
+      <c r="HM5" t="s" s="2412">
         <v>66</v>
       </c>
-      <c r="HO5" t="s" s="2378">
+      <c r="HN5" t="s" s="2413">
         <v>67</v>
       </c>
-      <c r="HP5" t="s" s="2379">
+      <c r="HO5" t="s" s="2414">
         <v>68</v>
       </c>
-      <c r="HQ5" t="s" s="2380">
+      <c r="HP5" t="s" s="2415">
         <v>69</v>
       </c>
-      <c r="HR5" t="s" s="2381">
+      <c r="HQ5" t="s" s="2416">
         <v>70</v>
       </c>
-      <c r="HS5" t="s" s="2382">
+      <c r="HR5" t="s" s="2417">
         <v>71</v>
       </c>
-      <c r="HT5" t="s" s="2383">
+      <c r="HS5" t="s" s="2418">
         <v>72</v>
       </c>
-      <c r="HU5" t="s" s="2384">
+      <c r="HT5" t="s" s="2419">
         <v>73</v>
       </c>
-      <c r="HV5" t="s" s="2385">
+      <c r="HU5" t="s" s="2420">
         <v>74</v>
       </c>
-      <c r="HW5" t="s" s="2386">
+      <c r="HV5" t="s" s="2421">
         <v>75</v>
       </c>
-      <c r="HX5" t="s" s="2387">
-        <v>64</v>
-      </c>
-      <c r="HY5" t="s" s="2388">
+      <c r="HW5" t="s" s="2422">
+        <v>76</v>
+      </c>
+      <c r="HX5" t="s" s="2423">
         <v>65</v>
       </c>
-      <c r="HZ5" t="s" s="2389">
+      <c r="HY5" t="s" s="2424">
         <v>66</v>
       </c>
-      <c r="IA5" t="s" s="2390">
+      <c r="HZ5" t="s" s="2425">
         <v>67</v>
       </c>
-      <c r="IB5" t="s" s="2391">
+      <c r="IA5" t="s" s="2426">
         <v>68</v>
       </c>
-      <c r="IC5" t="s" s="2392">
+      <c r="IB5" t="s" s="2427">
         <v>69</v>
       </c>
-      <c r="ID5" t="s" s="2393">
+      <c r="IC5" t="s" s="2428">
         <v>70</v>
       </c>
-      <c r="IE5" t="s" s="2394">
+      <c r="ID5" t="s" s="2429">
         <v>71</v>
       </c>
-      <c r="IF5" t="s" s="2395">
+      <c r="IE5" t="s" s="2430">
         <v>72</v>
       </c>
-      <c r="IG5" t="s" s="2396">
+      <c r="IF5" t="s" s="2431">
         <v>73</v>
       </c>
-      <c r="IH5" t="s" s="2397">
+      <c r="IG5" t="s" s="2432">
         <v>74</v>
       </c>
-      <c r="II5" t="s" s="2398">
+      <c r="IH5" t="s" s="2433">
         <v>75</v>
       </c>
-      <c r="IJ5" t="s" s="2399">
-        <v>64</v>
-      </c>
-      <c r="IK5" t="s" s="2400">
+      <c r="II5" t="s" s="2434">
+        <v>76</v>
+      </c>
+      <c r="IJ5" t="s" s="2435">
         <v>65</v>
       </c>
-      <c r="IL5" t="s" s="2401">
+      <c r="IK5" t="s" s="2436">
         <v>66</v>
       </c>
-      <c r="IM5" t="s" s="2402">
+      <c r="IL5" t="s" s="2437">
         <v>67</v>
       </c>
-      <c r="IN5" t="s" s="2403">
+      <c r="IM5" t="s" s="2438">
         <v>68</v>
       </c>
-      <c r="IO5" t="s" s="2404">
+      <c r="IN5" t="s" s="2439">
         <v>69</v>
       </c>
-      <c r="IP5" t="s" s="2405">
+      <c r="IO5" t="s" s="2440">
         <v>70</v>
       </c>
-      <c r="IQ5" t="s" s="2406">
+      <c r="IP5" t="s" s="2441">
         <v>71</v>
       </c>
-      <c r="IR5" t="s" s="2407">
+      <c r="IQ5" t="s" s="2442">
         <v>72</v>
       </c>
-      <c r="IS5" t="s" s="2408">
+      <c r="IR5" t="s" s="2443">
         <v>73</v>
       </c>
-      <c r="IT5" t="s" s="2409">
+      <c r="IS5" t="s" s="2444">
         <v>74</v>
       </c>
-      <c r="IU5" t="s" s="2410">
+      <c r="IT5" t="s" s="2445">
         <v>75</v>
       </c>
-      <c r="IV5" t="s" s="2411">
-        <v>64</v>
-      </c>
-      <c r="IW5" t="s" s="2412">
+      <c r="IU5" t="s" s="2446">
+        <v>76</v>
+      </c>
+      <c r="IV5" t="s" s="2447">
         <v>65</v>
       </c>
-      <c r="IX5" t="s" s="2413">
+      <c r="IW5" t="s" s="2448">
         <v>66</v>
       </c>
-      <c r="IY5" t="s" s="2414">
+      <c r="IX5" t="s" s="2449">
         <v>67</v>
       </c>
-      <c r="IZ5" t="s" s="2415">
+      <c r="IY5" t="s" s="2450">
         <v>68</v>
       </c>
-      <c r="JA5" t="s" s="2416">
+      <c r="IZ5" t="s" s="2451">
         <v>69</v>
       </c>
-      <c r="JB5" t="s" s="2417">
+      <c r="JA5" t="s" s="2452">
         <v>70</v>
       </c>
-      <c r="JC5" t="s" s="2418">
+      <c r="JB5" t="s" s="2453">
         <v>71</v>
       </c>
-      <c r="JD5" t="s" s="2419">
+      <c r="JC5" t="s" s="2454">
         <v>72</v>
       </c>
-      <c r="JE5" t="s" s="2420">
+      <c r="JD5" t="s" s="2455">
         <v>73</v>
       </c>
-      <c r="JF5" t="s" s="2421">
+      <c r="JE5" t="s" s="2456">
         <v>74</v>
       </c>
-      <c r="JG5" t="s" s="2422">
+      <c r="JF5" t="s" s="2457">
         <v>75</v>
       </c>
-      <c r="JH5" t="s" s="2423">
-        <v>64</v>
-      </c>
-      <c r="JI5" t="s" s="2424">
+      <c r="JG5" t="s" s="2458">
+        <v>76</v>
+      </c>
+      <c r="JH5" t="s" s="2459">
         <v>65</v>
       </c>
-      <c r="JJ5" t="s" s="2425">
+      <c r="JI5" t="s" s="2460">
         <v>66</v>
       </c>
-      <c r="JK5" t="s" s="2426">
+      <c r="JJ5" t="s" s="2461">
         <v>67</v>
       </c>
-      <c r="JL5" t="s" s="2427">
+      <c r="JK5" t="s" s="2462">
         <v>68</v>
       </c>
-      <c r="JM5" t="s" s="2428">
+      <c r="JL5" t="s" s="2463">
         <v>69</v>
       </c>
-      <c r="JN5" t="s" s="2429">
+      <c r="JM5" t="s" s="2464">
         <v>70</v>
       </c>
-      <c r="JO5" t="s" s="2430">
+      <c r="JN5" t="s" s="2465">
         <v>71</v>
       </c>
-      <c r="JP5" t="s" s="2431">
+      <c r="JO5" t="s" s="2466">
         <v>72</v>
       </c>
-      <c r="JQ5" t="s" s="2432">
+      <c r="JP5" t="s" s="2467">
         <v>73</v>
       </c>
-      <c r="JR5" t="s" s="2433">
+      <c r="JQ5" t="s" s="2468">
         <v>74</v>
       </c>
-      <c r="JS5" t="s" s="2434">
+      <c r="JR5" t="s" s="2469">
         <v>75</v>
       </c>
-      <c r="JT5" t="s" s="2435">
-        <v>64</v>
-      </c>
-      <c r="JU5" t="s" s="2436">
+      <c r="JS5" t="s" s="2470">
+        <v>76</v>
+      </c>
+      <c r="JT5" t="s" s="2471">
         <v>65</v>
       </c>
-      <c r="JV5" t="s" s="2437">
+      <c r="JU5" t="s" s="2472">
         <v>66</v>
       </c>
-      <c r="JW5" t="s" s="2438">
+      <c r="JV5" t="s" s="2473">
         <v>67</v>
       </c>
-      <c r="JX5" t="s" s="2439">
+      <c r="JW5" t="s" s="2474">
         <v>68</v>
       </c>
-      <c r="JY5" t="s" s="2440">
+      <c r="JX5" t="s" s="2475">
         <v>69</v>
       </c>
-      <c r="JZ5" t="s" s="2441">
+      <c r="JY5" t="s" s="2476">
         <v>70</v>
       </c>
-      <c r="KA5" t="s" s="2442">
+      <c r="JZ5" t="s" s="2477">
         <v>71</v>
       </c>
-      <c r="KB5" t="s" s="2443">
+      <c r="KA5" t="s" s="2478">
         <v>72</v>
       </c>
-      <c r="KC5" t="s" s="2444">
+      <c r="KB5" t="s" s="2479">
         <v>73</v>
       </c>
-      <c r="KD5" t="s" s="2445">
+      <c r="KC5" t="s" s="2480">
         <v>74</v>
       </c>
-      <c r="KE5" t="s" s="2446">
+      <c r="KD5" t="s" s="2481">
         <v>75</v>
       </c>
-      <c r="KF5" t="s" s="2447">
-        <v>64</v>
-      </c>
-      <c r="KG5" t="s" s="2448">
+      <c r="KE5" t="s" s="2482">
+        <v>76</v>
+      </c>
+      <c r="KF5" t="s" s="2483">
         <v>65</v>
       </c>
-      <c r="KH5" t="s" s="2449">
+      <c r="KG5" t="s" s="2484">
         <v>66</v>
       </c>
-      <c r="KI5" t="s" s="2450">
+      <c r="KH5" t="s" s="2485">
         <v>67</v>
       </c>
-      <c r="KJ5" t="s" s="2451">
+      <c r="KI5" t="s" s="2486">
         <v>68</v>
       </c>
-      <c r="KK5" t="s" s="2452">
+      <c r="KJ5" t="s" s="2487">
         <v>69</v>
       </c>
-      <c r="KL5" t="s" s="2453">
+      <c r="KK5" t="s" s="2488">
         <v>70</v>
       </c>
-      <c r="KM5" t="s" s="2454">
+      <c r="KL5" t="s" s="2489">
         <v>71</v>
       </c>
-      <c r="KN5" t="s" s="2455">
+      <c r="KM5" t="s" s="2490">
         <v>72</v>
       </c>
-      <c r="KO5" t="s" s="2456">
+      <c r="KN5" t="s" s="2491">
         <v>73</v>
       </c>
-      <c r="KP5" t="s" s="2457">
+      <c r="KO5" t="s" s="2492">
         <v>74</v>
       </c>
-      <c r="KQ5" t="s" s="2458">
+      <c r="KP5" t="s" s="2493">
         <v>75</v>
       </c>
-      <c r="KR5" t="s" s="2459">
-        <v>64</v>
-      </c>
-      <c r="KS5" t="s" s="2460">
+      <c r="KQ5" t="s" s="2494">
+        <v>76</v>
+      </c>
+      <c r="KR5" t="s" s="2495">
         <v>65</v>
       </c>
-      <c r="KT5" t="s" s="2461">
+      <c r="KS5" t="s" s="2496">
         <v>66</v>
       </c>
-      <c r="KU5" t="s" s="2462">
+      <c r="KT5" t="s" s="2497">
         <v>67</v>
       </c>
-      <c r="KV5" t="s" s="2463">
+      <c r="KU5" t="s" s="2498">
         <v>68</v>
       </c>
-      <c r="KW5" t="s" s="2464">
+      <c r="KV5" t="s" s="2499">
         <v>69</v>
       </c>
-      <c r="KX5" t="s" s="2465">
+      <c r="KW5" t="s" s="2500">
         <v>70</v>
       </c>
-      <c r="KY5" t="s" s="2466">
+      <c r="KX5" t="s" s="2501">
         <v>71</v>
       </c>
-      <c r="KZ5" t="s" s="2467">
+      <c r="KY5" t="s" s="2502">
         <v>72</v>
       </c>
-      <c r="LA5" t="s" s="2468">
+      <c r="KZ5" t="s" s="2503">
         <v>73</v>
       </c>
-      <c r="LB5" t="s" s="2469">
+      <c r="LA5" t="s" s="2504">
         <v>74</v>
       </c>
-      <c r="LC5" t="s" s="2470">
+      <c r="LB5" t="s" s="2505">
         <v>75</v>
       </c>
-      <c r="LD5" t="s" s="2471">
-        <v>64</v>
-      </c>
-      <c r="LE5" t="s" s="2472">
+      <c r="LC5" t="s" s="2506">
+        <v>76</v>
+      </c>
+      <c r="LD5" t="s" s="2507">
         <v>65</v>
       </c>
-      <c r="LF5" t="s" s="2473">
+      <c r="LE5" t="s" s="2508">
         <v>66</v>
       </c>
-      <c r="LG5" t="s" s="2474">
+      <c r="LF5" t="s" s="2509">
         <v>67</v>
       </c>
-      <c r="LH5" t="s" s="2475">
+      <c r="LG5" t="s" s="2510">
         <v>68</v>
       </c>
-      <c r="LI5" t="s" s="2476">
+      <c r="LH5" t="s" s="2511">
         <v>69</v>
       </c>
-      <c r="LJ5" t="s" s="2477">
+      <c r="LI5" t="s" s="2512">
         <v>70</v>
       </c>
-      <c r="LK5" t="s" s="2478">
+      <c r="LJ5" t="s" s="2513">
         <v>71</v>
       </c>
-      <c r="LL5" t="s" s="2479">
+      <c r="LK5" t="s" s="2514">
         <v>72</v>
       </c>
-      <c r="LM5" t="s" s="2480">
+      <c r="LL5" t="s" s="2515">
         <v>73</v>
       </c>
-      <c r="LN5" t="s" s="2481">
+      <c r="LM5" t="s" s="2516">
         <v>74</v>
       </c>
-      <c r="LO5" t="s" s="2482">
+      <c r="LN5" t="s" s="2517">
         <v>75</v>
       </c>
-      <c r="LP5" t="s" s="2483">
-        <v>64</v>
-      </c>
-      <c r="LQ5" t="s" s="2484">
+      <c r="LO5" t="s" s="2518">
+        <v>76</v>
+      </c>
+      <c r="LP5" t="s" s="2519">
         <v>65</v>
       </c>
-      <c r="LR5" t="s" s="2485">
+      <c r="LQ5" t="s" s="2520">
         <v>66</v>
       </c>
-      <c r="LS5" t="s" s="2486">
+      <c r="LR5" t="s" s="2521">
         <v>67</v>
       </c>
-      <c r="LT5" t="s" s="2487">
+      <c r="LS5" t="s" s="2522">
         <v>68</v>
       </c>
-      <c r="LU5" t="s" s="2488">
+      <c r="LT5" t="s" s="2523">
         <v>69</v>
       </c>
-      <c r="LV5" t="s" s="2489">
+      <c r="LU5" t="s" s="2524">
         <v>70</v>
       </c>
-      <c r="LW5" t="s" s="2490">
+      <c r="LV5" t="s" s="2525">
         <v>71</v>
       </c>
-      <c r="LX5" t="s" s="2491">
+      <c r="LW5" t="s" s="2526">
         <v>72</v>
       </c>
-      <c r="LY5" t="s" s="2492">
+      <c r="LX5" t="s" s="2527">
         <v>73</v>
       </c>
-      <c r="LZ5" t="s" s="2493">
+      <c r="LY5" t="s" s="2528">
         <v>74</v>
       </c>
-      <c r="MA5" t="s" s="2494">
+      <c r="LZ5" t="s" s="2529">
         <v>75</v>
       </c>
-      <c r="MB5" t="s" s="2495">
-        <v>64</v>
-      </c>
-      <c r="MC5" t="s" s="2496">
+      <c r="MA5" t="s" s="2530">
+        <v>76</v>
+      </c>
+      <c r="MB5" t="s" s="2531">
         <v>65</v>
       </c>
-      <c r="MD5" t="s" s="2497">
+      <c r="MC5" t="s" s="2532">
         <v>66</v>
       </c>
-      <c r="ME5" t="s" s="2498">
+      <c r="MD5" t="s" s="2533">
         <v>67</v>
       </c>
-      <c r="MF5" t="s" s="2499">
+      <c r="ME5" t="s" s="2534">
         <v>68</v>
       </c>
-      <c r="MG5" t="s" s="2500">
+      <c r="MF5" t="s" s="2535">
         <v>69</v>
       </c>
-      <c r="MH5" t="s" s="2501">
+      <c r="MG5" t="s" s="2536">
         <v>70</v>
       </c>
-      <c r="MI5" t="s" s="2502">
+      <c r="MH5" t="s" s="2537">
         <v>71</v>
       </c>
-      <c r="MJ5" t="s" s="2503">
+      <c r="MI5" t="s" s="2538">
         <v>72</v>
       </c>
-      <c r="MK5" t="s" s="2504">
+      <c r="MJ5" t="s" s="2539">
         <v>73</v>
       </c>
-      <c r="ML5" t="s" s="2505">
+      <c r="MK5" t="s" s="2540">
         <v>74</v>
       </c>
-      <c r="MM5" t="s" s="2506">
+      <c r="ML5" t="s" s="2541">
         <v>75</v>
       </c>
-      <c r="MN5" t="s" s="2507">
-        <v>64</v>
-      </c>
-      <c r="MO5" t="s" s="2508">
+      <c r="MM5" t="s" s="2542">
+        <v>76</v>
+      </c>
+      <c r="MN5" t="s" s="2543">
         <v>65</v>
       </c>
-      <c r="MP5" t="s" s="2509">
+      <c r="MO5" t="s" s="2544">
         <v>66</v>
       </c>
-      <c r="MQ5" t="s" s="2510">
+      <c r="MP5" t="s" s="2545">
         <v>67</v>
       </c>
-      <c r="MR5" t="s" s="2511">
+      <c r="MQ5" t="s" s="2546">
         <v>68</v>
       </c>
-      <c r="MS5" t="s" s="2512">
+      <c r="MR5" t="s" s="2547">
         <v>69</v>
       </c>
-      <c r="MT5" t="s" s="2513">
+      <c r="MS5" t="s" s="2548">
         <v>70</v>
       </c>
-      <c r="MU5" t="s" s="2514">
+      <c r="MT5" t="s" s="2549">
         <v>71</v>
       </c>
-      <c r="MV5" t="s" s="2515">
+      <c r="MU5" t="s" s="2550">
         <v>72</v>
       </c>
-      <c r="MW5" t="s" s="2516">
+      <c r="MV5" t="s" s="2551">
         <v>73</v>
       </c>
-      <c r="MX5" t="s" s="2517">
+      <c r="MW5" t="s" s="2552">
         <v>74</v>
       </c>
-      <c r="MY5" t="s" s="2518">
+      <c r="MX5" t="s" s="2553">
         <v>75</v>
       </c>
-      <c r="MZ5" t="s" s="2519">
-        <v>64</v>
-      </c>
-      <c r="NA5" t="s" s="2520">
+      <c r="MY5" t="s" s="2554">
+        <v>76</v>
+      </c>
+      <c r="MZ5" t="s" s="2555">
         <v>65</v>
       </c>
-      <c r="NB5" t="s" s="2521">
+      <c r="NA5" t="s" s="2556">
         <v>66</v>
       </c>
-      <c r="NC5" t="s" s="2522">
+      <c r="NB5" t="s" s="2557">
         <v>67</v>
       </c>
-      <c r="ND5" t="s" s="2523">
+      <c r="NC5" t="s" s="2558">
         <v>68</v>
       </c>
-      <c r="NE5" t="s" s="2524">
+      <c r="ND5" t="s" s="2559">
         <v>69</v>
       </c>
-      <c r="NF5" t="s" s="2525">
+      <c r="NE5" t="s" s="2560">
         <v>70</v>
       </c>
-      <c r="NG5" t="s" s="2526">
+      <c r="NF5" t="s" s="2561">
         <v>71</v>
       </c>
-      <c r="NH5" t="s" s="2527">
+      <c r="NG5" t="s" s="2562">
         <v>72</v>
       </c>
-      <c r="NI5" t="s" s="2528">
+      <c r="NH5" t="s" s="2563">
         <v>73</v>
       </c>
-      <c r="NJ5" t="s" s="2529">
+      <c r="NI5" t="s" s="2564">
         <v>74</v>
       </c>
-      <c r="NK5" t="s" s="2530">
+      <c r="NJ5" t="s" s="2565">
         <v>75</v>
       </c>
-      <c r="NL5" t="s" s="2531">
-        <v>64</v>
-      </c>
-      <c r="NM5" t="s" s="2532">
+      <c r="NK5" t="s" s="2566">
+        <v>76</v>
+      </c>
+      <c r="NL5" t="s" s="2567">
         <v>65</v>
       </c>
-      <c r="NN5" t="s" s="2533">
+      <c r="NM5" t="s" s="2568">
         <v>66</v>
       </c>
-      <c r="NO5" t="s" s="2534">
+      <c r="NN5" t="s" s="2569">
         <v>67</v>
       </c>
-      <c r="NP5" t="s" s="2535">
+      <c r="NO5" t="s" s="2570">
         <v>68</v>
       </c>
-      <c r="NQ5" t="s" s="2536">
+      <c r="NP5" t="s" s="2571">
         <v>69</v>
       </c>
-      <c r="NR5" t="s" s="2537">
+      <c r="NQ5" t="s" s="2572">
         <v>70</v>
       </c>
-      <c r="NS5" t="s" s="2538">
+      <c r="NR5" t="s" s="2573">
         <v>71</v>
       </c>
-      <c r="NT5" t="s" s="2539">
+      <c r="NS5" t="s" s="2574">
         <v>72</v>
       </c>
-      <c r="NU5" t="s" s="2540">
+      <c r="NT5" t="s" s="2575">
         <v>73</v>
       </c>
-      <c r="NV5" t="s" s="2541">
+      <c r="NU5" t="s" s="2576">
         <v>74</v>
       </c>
-      <c r="NW5" t="s" s="2542">
+      <c r="NV5" t="s" s="2577">
         <v>75</v>
       </c>
-      <c r="NX5" t="s" s="2543">
-        <v>64</v>
-      </c>
-      <c r="NY5" t="s" s="2544">
+      <c r="NW5" t="s" s="2578">
+        <v>76</v>
+      </c>
+      <c r="NX5" t="s" s="2579">
         <v>65</v>
       </c>
-      <c r="NZ5" t="s" s="2545">
+      <c r="NY5" t="s" s="2580">
         <v>66</v>
       </c>
-      <c r="OA5" t="s" s="2546">
+      <c r="NZ5" t="s" s="2581">
         <v>67</v>
       </c>
-      <c r="OB5" t="s" s="2547">
+      <c r="OA5" t="s" s="2582">
         <v>68</v>
       </c>
-      <c r="OC5" t="s" s="2548">
+      <c r="OB5" t="s" s="2583">
         <v>69</v>
       </c>
-      <c r="OD5" t="s" s="2549">
+      <c r="OC5" t="s" s="2584">
         <v>70</v>
       </c>
-      <c r="OE5" t="s" s="2550">
+      <c r="OD5" t="s" s="2585">
         <v>71</v>
       </c>
-      <c r="OF5" t="s" s="2551">
+      <c r="OE5" t="s" s="2586">
         <v>72</v>
       </c>
-      <c r="OG5" t="s" s="2552">
+      <c r="OF5" t="s" s="2587">
         <v>73</v>
       </c>
-      <c r="OH5" t="s" s="2553">
+      <c r="OG5" t="s" s="2588">
         <v>74</v>
       </c>
-      <c r="OI5" t="s" s="2554">
+      <c r="OH5" t="s" s="2589">
         <v>75</v>
       </c>
-      <c r="OJ5" t="s" s="2555">
-        <v>64</v>
-      </c>
-      <c r="OK5" t="s" s="2556">
+      <c r="OI5" t="s" s="2590">
+        <v>76</v>
+      </c>
+      <c r="OJ5" t="s" s="2591">
         <v>65</v>
       </c>
-      <c r="OL5" t="s" s="2557">
+      <c r="OK5" t="s" s="2592">
         <v>66</v>
       </c>
-      <c r="OM5" t="s" s="2558">
+      <c r="OL5" t="s" s="2593">
         <v>67</v>
       </c>
-      <c r="ON5" t="s" s="2559">
+      <c r="OM5" t="s" s="2594">
         <v>68</v>
       </c>
-      <c r="OO5" t="s" s="2560">
+      <c r="ON5" t="s" s="2595">
         <v>69</v>
       </c>
-      <c r="OP5" t="s" s="2561">
+      <c r="OO5" t="s" s="2596">
         <v>70</v>
       </c>
-      <c r="OQ5" t="s" s="2562">
+      <c r="OP5" t="s" s="2597">
         <v>71</v>
       </c>
-      <c r="OR5" t="s" s="2563">
+      <c r="OQ5" t="s" s="2598">
         <v>72</v>
       </c>
-      <c r="OS5" t="s" s="2564">
+      <c r="OR5" t="s" s="2599">
         <v>73</v>
       </c>
-      <c r="OT5" t="s" s="2565">
+      <c r="OS5" t="s" s="2600">
         <v>74</v>
       </c>
-      <c r="OU5" t="s" s="2566">
+      <c r="OT5" t="s" s="2601">
         <v>75</v>
       </c>
-      <c r="OV5" t="s" s="2567">
-        <v>64</v>
-      </c>
-      <c r="OW5" t="s" s="2568">
+      <c r="OU5" t="s" s="2602">
+        <v>76</v>
+      </c>
+      <c r="OV5" t="s" s="2603">
         <v>65</v>
       </c>
-      <c r="OX5" t="s" s="2569">
+      <c r="OW5" t="s" s="2604">
         <v>66</v>
       </c>
-      <c r="OY5" t="s" s="2570">
+      <c r="OX5" t="s" s="2605">
         <v>67</v>
       </c>
-      <c r="OZ5" t="s" s="2571">
+      <c r="OY5" t="s" s="2606">
         <v>68</v>
       </c>
-      <c r="PA5" t="s" s="2572">
+      <c r="OZ5" t="s" s="2607">
         <v>69</v>
       </c>
-      <c r="PB5" t="s" s="2573">
+      <c r="PA5" t="s" s="2608">
         <v>70</v>
       </c>
-      <c r="PC5" t="s" s="2574">
+      <c r="PB5" t="s" s="2609">
         <v>71</v>
       </c>
-      <c r="PD5" t="s" s="2575">
+      <c r="PC5" t="s" s="2610">
         <v>72</v>
       </c>
-      <c r="PE5" t="s" s="2576">
+      <c r="PD5" t="s" s="2611">
         <v>73</v>
       </c>
-      <c r="PF5" t="s" s="2577">
+      <c r="PE5" t="s" s="2612">
         <v>74</v>
       </c>
-      <c r="PG5" t="s" s="2578">
+      <c r="PF5" t="s" s="2613">
         <v>75</v>
       </c>
-      <c r="PH5" t="s" s="2579">
-        <v>64</v>
-      </c>
-      <c r="PI5" t="s" s="2580">
+      <c r="PG5" t="s" s="2614">
+        <v>76</v>
+      </c>
+      <c r="PH5" t="s" s="2615">
         <v>65</v>
       </c>
-      <c r="PJ5" t="s" s="2581">
+      <c r="PI5" t="s" s="2616">
         <v>66</v>
       </c>
-      <c r="PK5" t="s" s="2582">
+      <c r="PJ5" t="s" s="2617">
         <v>67</v>
       </c>
-      <c r="PL5" t="s" s="2583">
+      <c r="PK5" t="s" s="2618">
         <v>68</v>
       </c>
-      <c r="PM5" t="s" s="2584">
+      <c r="PL5" t="s" s="2619">
         <v>69</v>
       </c>
-      <c r="PN5" t="s" s="2585">
+      <c r="PM5" t="s" s="2620">
         <v>70</v>
       </c>
-      <c r="PO5" t="s" s="2586">
+      <c r="PN5" t="s" s="2621">
         <v>71</v>
       </c>
-      <c r="PP5" t="s" s="2587">
+      <c r="PO5" t="s" s="2622">
         <v>72</v>
       </c>
-      <c r="PQ5" t="s" s="2588">
+      <c r="PP5" t="s" s="2623">
         <v>73</v>
       </c>
-      <c r="PR5" t="s" s="2589">
+      <c r="PQ5" t="s" s="2624">
         <v>74</v>
       </c>
-      <c r="PS5" t="s" s="2590">
+      <c r="PR5" t="s" s="2625">
         <v>75</v>
       </c>
-      <c r="PT5" t="s" s="2591">
-        <v>64</v>
-      </c>
-      <c r="PU5" t="s" s="2592">
+      <c r="PS5" t="s" s="2626">
+        <v>76</v>
+      </c>
+      <c r="PT5" t="s" s="2627">
         <v>65</v>
       </c>
-      <c r="PV5" t="s" s="2593">
+      <c r="PU5" t="s" s="2628">
         <v>66</v>
       </c>
-      <c r="PW5" t="s" s="2594">
+      <c r="PV5" t="s" s="2629">
         <v>67</v>
       </c>
-      <c r="PX5" t="s" s="2595">
+      <c r="PW5" t="s" s="2630">
         <v>68</v>
       </c>
-      <c r="PY5" t="s" s="2596">
+      <c r="PX5" t="s" s="2631">
         <v>69</v>
       </c>
-      <c r="PZ5" t="s" s="2597">
+      <c r="PY5" t="s" s="2632">
         <v>70</v>
       </c>
-      <c r="QA5" t="s" s="2598">
+      <c r="PZ5" t="s" s="2633">
         <v>71</v>
       </c>
-      <c r="QB5" t="s" s="2599">
+      <c r="QA5" t="s" s="2634">
         <v>72</v>
       </c>
-      <c r="QC5" t="s" s="2600">
+      <c r="QB5" t="s" s="2635">
         <v>73</v>
       </c>
-      <c r="QD5" t="s" s="2601">
+      <c r="QC5" t="s" s="2636">
         <v>74</v>
       </c>
-      <c r="QE5" t="s" s="2602">
+      <c r="QD5" t="s" s="2637">
         <v>75</v>
       </c>
-      <c r="QF5" t="s" s="2603">
-        <v>64</v>
-      </c>
-      <c r="QG5" t="s" s="2604">
+      <c r="QE5" t="s" s="2638">
+        <v>76</v>
+      </c>
+      <c r="QF5" t="s" s="2639">
         <v>65</v>
       </c>
-      <c r="QH5" t="s" s="2605">
+      <c r="QG5" t="s" s="2640">
         <v>66</v>
       </c>
-      <c r="QI5" t="s" s="2606">
+      <c r="QH5" t="s" s="2641">
         <v>67</v>
       </c>
-      <c r="QJ5" t="s" s="2607">
+      <c r="QI5" t="s" s="2642">
         <v>68</v>
       </c>
-      <c r="QK5" t="s" s="2608">
+      <c r="QJ5" t="s" s="2643">
         <v>69</v>
       </c>
-      <c r="QL5" t="s" s="2609">
+      <c r="QK5" t="s" s="2644">
         <v>70</v>
       </c>
-      <c r="QM5" t="s" s="2610">
+      <c r="QL5" t="s" s="2645">
         <v>71</v>
       </c>
-      <c r="QN5" t="s" s="2611">
+      <c r="QM5" t="s" s="2646">
         <v>72</v>
       </c>
-      <c r="QO5" t="s" s="2612">
+      <c r="QN5" t="s" s="2647">
         <v>73</v>
       </c>
-      <c r="QP5" t="s" s="2613">
+      <c r="QO5" t="s" s="2648">
         <v>74</v>
       </c>
-      <c r="QQ5" t="s" s="2614">
+      <c r="QP5" t="s" s="2649">
         <v>75</v>
       </c>
-      <c r="QR5" t="s" s="2615">
-        <v>64</v>
-      </c>
-      <c r="QS5" t="s" s="2616">
+      <c r="QQ5" t="s" s="2650">
+        <v>76</v>
+      </c>
+      <c r="QR5" t="s" s="2651">
         <v>65</v>
       </c>
-      <c r="QT5" t="s" s="2617">
+      <c r="QS5" t="s" s="2652">
         <v>66</v>
       </c>
-      <c r="QU5" t="s" s="2618">
+      <c r="QT5" t="s" s="2653">
         <v>67</v>
       </c>
-      <c r="QV5" t="s" s="2619">
+      <c r="QU5" t="s" s="2654">
         <v>68</v>
       </c>
-      <c r="QW5" t="s" s="2620">
+      <c r="QV5" t="s" s="2655">
         <v>69</v>
       </c>
-      <c r="QX5" t="s" s="2621">
+      <c r="QW5" t="s" s="2656">
         <v>70</v>
       </c>
-      <c r="QY5" t="s" s="2622">
+      <c r="QX5" t="s" s="2657">
         <v>71</v>
       </c>
-      <c r="QZ5" t="s" s="2623">
+      <c r="QY5" t="s" s="2658">
         <v>72</v>
       </c>
-      <c r="RA5" t="s" s="2624">
+      <c r="QZ5" t="s" s="2659">
         <v>73</v>
       </c>
-      <c r="RB5" t="s" s="2625">
+      <c r="RA5" t="s" s="2660">
         <v>74</v>
       </c>
-      <c r="RC5" t="s" s="2626">
+      <c r="RB5" t="s" s="2661">
         <v>75</v>
       </c>
-      <c r="RD5" t="s" s="2627">
-        <v>64</v>
-      </c>
-      <c r="RE5" t="s" s="2628">
+      <c r="RC5" t="s" s="2662">
+        <v>76</v>
+      </c>
+      <c r="RD5" t="s" s="2663">
         <v>65</v>
       </c>
-      <c r="RF5" t="s" s="2629">
+      <c r="RE5" t="s" s="2664">
         <v>66</v>
       </c>
-      <c r="RG5" t="s" s="2630">
+      <c r="RF5" t="s" s="2665">
         <v>67</v>
       </c>
-      <c r="RH5" t="s" s="2631">
+      <c r="RG5" t="s" s="2666">
         <v>68</v>
       </c>
-      <c r="RI5" t="s" s="2632">
+      <c r="RH5" t="s" s="2667">
         <v>69</v>
       </c>
-      <c r="RJ5" t="s" s="2633">
+      <c r="RI5" t="s" s="2668">
         <v>70</v>
       </c>
-      <c r="RK5" t="s" s="2634">
+      <c r="RJ5" t="s" s="2669">
         <v>71</v>
       </c>
-      <c r="RL5" t="s" s="2635">
+      <c r="RK5" t="s" s="2670">
         <v>72</v>
       </c>
-      <c r="RM5" t="s" s="2636">
+      <c r="RL5" t="s" s="2671">
         <v>73</v>
       </c>
-      <c r="RN5" t="s" s="2637">
+      <c r="RM5" t="s" s="2672">
         <v>74</v>
       </c>
-      <c r="RO5" t="s" s="2638">
+      <c r="RN5" t="s" s="2673">
         <v>75</v>
       </c>
-      <c r="RP5" t="s" s="2639">
-        <v>64</v>
-      </c>
-      <c r="RQ5" t="s" s="2640">
+      <c r="RO5" t="s" s="2674">
+        <v>76</v>
+      </c>
+      <c r="RP5" t="s" s="2675">
         <v>65</v>
       </c>
-      <c r="RR5" t="s" s="2641">
+      <c r="RQ5" t="s" s="2676">
         <v>66</v>
       </c>
-      <c r="RS5" t="s" s="2642">
+      <c r="RR5" t="s" s="2677">
         <v>67</v>
       </c>
-      <c r="RT5" t="s" s="2643">
+      <c r="RS5" t="s" s="2678">
         <v>68</v>
       </c>
-      <c r="RU5" t="s" s="2644">
+      <c r="RT5" t="s" s="2679">
         <v>69</v>
       </c>
-      <c r="RV5" t="s" s="2645">
+      <c r="RU5" t="s" s="2680">
         <v>70</v>
       </c>
-      <c r="RW5" t="s" s="2646">
+      <c r="RV5" t="s" s="2681">
         <v>71</v>
       </c>
-      <c r="RX5" t="s" s="2647">
+      <c r="RW5" t="s" s="2682">
         <v>72</v>
       </c>
-      <c r="RY5" t="s" s="2648">
+      <c r="RX5" t="s" s="2683">
         <v>73</v>
       </c>
-      <c r="RZ5" t="s" s="2649">
+      <c r="RY5" t="s" s="2684">
         <v>74</v>
       </c>
-      <c r="SA5" t="s" s="2650">
+      <c r="RZ5" t="s" s="2685">
         <v>75</v>
       </c>
-      <c r="SB5" t="s" s="2651">
-        <v>64</v>
-      </c>
-      <c r="SC5" t="s" s="2652">
+      <c r="SA5" t="s" s="2686">
+        <v>76</v>
+      </c>
+      <c r="SB5" t="s" s="2687">
         <v>65</v>
       </c>
-      <c r="SD5" t="s" s="2653">
+      <c r="SC5" t="s" s="2688">
         <v>66</v>
       </c>
-      <c r="SE5" t="s" s="2654">
+      <c r="SD5" t="s" s="2689">
         <v>67</v>
       </c>
-      <c r="SF5" t="s" s="2655">
+      <c r="SE5" t="s" s="2690">
         <v>68</v>
       </c>
-      <c r="SG5" t="s" s="2656">
+      <c r="SF5" t="s" s="2691">
         <v>69</v>
       </c>
-      <c r="SH5" t="s" s="2657">
+      <c r="SG5" t="s" s="2692">
         <v>70</v>
       </c>
-      <c r="SI5" t="s" s="2658">
+      <c r="SH5" t="s" s="2693">
         <v>71</v>
       </c>
-      <c r="SJ5" t="s" s="2659">
+      <c r="SI5" t="s" s="2694">
         <v>72</v>
       </c>
-      <c r="SK5" t="s" s="2660">
+      <c r="SJ5" t="s" s="2695">
         <v>73</v>
       </c>
-      <c r="SL5" t="s" s="2661">
+      <c r="SK5" t="s" s="2696">
         <v>74</v>
       </c>
-      <c r="SM5" t="s" s="2662">
+      <c r="SL5" t="s" s="2697">
         <v>75</v>
       </c>
-      <c r="SN5" t="s" s="2663">
-        <v>64</v>
-      </c>
-      <c r="SO5" t="s" s="2664">
+      <c r="SM5" t="s" s="2698">
+        <v>76</v>
+      </c>
+      <c r="SN5" t="s" s="2699">
         <v>65</v>
       </c>
-      <c r="SP5" t="s" s="2665">
+      <c r="SO5" t="s" s="2700">
         <v>66</v>
       </c>
-      <c r="SQ5" t="s" s="2666">
+      <c r="SP5" t="s" s="2701">
         <v>67</v>
       </c>
-      <c r="SR5" t="s" s="2667">
+      <c r="SQ5" t="s" s="2702">
         <v>68</v>
       </c>
-      <c r="SS5" t="s" s="2668">
+      <c r="SR5" t="s" s="2703">
         <v>69</v>
       </c>
-      <c r="ST5" t="s" s="2669">
+      <c r="SS5" t="s" s="2704">
         <v>70</v>
       </c>
-      <c r="SU5" t="s" s="2670">
+      <c r="ST5" t="s" s="2705">
         <v>71</v>
       </c>
-      <c r="SV5" t="s" s="2671">
+      <c r="SU5" t="s" s="2706">
         <v>72</v>
       </c>
-      <c r="SW5" t="s" s="2672">
+      <c r="SV5" t="s" s="2707">
         <v>73</v>
       </c>
-      <c r="SX5" t="s" s="2673">
+      <c r="SW5" t="s" s="2708">
         <v>74</v>
       </c>
-      <c r="SY5" t="s" s="2674">
+      <c r="SX5" t="s" s="2709">
         <v>75</v>
       </c>
-      <c r="SZ5" t="s" s="2675">
-        <v>64</v>
-      </c>
-      <c r="TA5" t="s" s="2676">
+      <c r="SY5" t="s" s="2710">
+        <v>76</v>
+      </c>
+      <c r="SZ5" t="s" s="2711">
         <v>65</v>
       </c>
-      <c r="TB5" t="s" s="2677">
+      <c r="TA5" t="s" s="2712">
         <v>66</v>
       </c>
-      <c r="TC5" t="s" s="2678">
+      <c r="TB5" t="s" s="2713">
         <v>67</v>
       </c>
-      <c r="TD5" t="s" s="2679">
+      <c r="TC5" t="s" s="2714">
         <v>68</v>
       </c>
-      <c r="TE5" t="s" s="2680">
+      <c r="TD5" t="s" s="2715">
         <v>69</v>
       </c>
-      <c r="TF5" t="s" s="2681">
+      <c r="TE5" t="s" s="2716">
         <v>70</v>
       </c>
-      <c r="TG5" t="s" s="2682">
+      <c r="TF5" t="s" s="2717">
         <v>71</v>
       </c>
-      <c r="TH5" t="s" s="2683">
+      <c r="TG5" t="s" s="2718">
         <v>72</v>
       </c>
-      <c r="TI5" t="s" s="2684">
+      <c r="TH5" t="s" s="2719">
         <v>73</v>
       </c>
-      <c r="TJ5" t="s" s="2685">
+      <c r="TI5" t="s" s="2720">
         <v>74</v>
       </c>
-      <c r="TK5" t="s" s="2686">
+      <c r="TJ5" t="s" s="2721">
         <v>75</v>
       </c>
-      <c r="TL5" t="s" s="2687">
-        <v>64</v>
-      </c>
-      <c r="TM5" t="s" s="2688">
+      <c r="TK5" t="s" s="2722">
+        <v>76</v>
+      </c>
+      <c r="TL5" t="s" s="2723">
         <v>65</v>
       </c>
-      <c r="TN5" t="s" s="2689">
+      <c r="TM5" t="s" s="2724">
         <v>66</v>
       </c>
-      <c r="TO5" t="s" s="2690">
+      <c r="TN5" t="s" s="2725">
         <v>67</v>
       </c>
-      <c r="TP5" t="s" s="2691">
+      <c r="TO5" t="s" s="2726">
         <v>68</v>
       </c>
-      <c r="TQ5" t="s" s="2692">
+      <c r="TP5" t="s" s="2727">
         <v>69</v>
       </c>
-      <c r="TR5" t="s" s="2693">
+      <c r="TQ5" t="s" s="2728">
         <v>70</v>
       </c>
-      <c r="TS5" t="s" s="2694">
+      <c r="TR5" t="s" s="2729">
         <v>71</v>
       </c>
-      <c r="TT5" t="s" s="2695">
+      <c r="TS5" t="s" s="2730">
         <v>72</v>
       </c>
-      <c r="TU5" t="s" s="2696">
+      <c r="TT5" t="s" s="2731">
         <v>73</v>
       </c>
-      <c r="TV5" t="s" s="2697">
+      <c r="TU5" t="s" s="2732">
         <v>74</v>
       </c>
-      <c r="TW5" t="s" s="2698">
+      <c r="TV5" t="s" s="2733">
         <v>75</v>
       </c>
-      <c r="TX5" t="s" s="2699">
-        <v>64</v>
-      </c>
-      <c r="TY5" t="s" s="2700">
+      <c r="TW5" t="s" s="2734">
+        <v>76</v>
+      </c>
+      <c r="TX5" t="s" s="2735">
         <v>65</v>
       </c>
-      <c r="TZ5" t="s" s="2701">
+      <c r="TY5" t="s" s="2736">
         <v>66</v>
       </c>
-      <c r="UA5" t="s" s="2702">
+      <c r="TZ5" t="s" s="2737">
         <v>67</v>
       </c>
-      <c r="UB5" t="s" s="2703">
+      <c r="UA5" t="s" s="2738">
         <v>68</v>
       </c>
-      <c r="UC5" t="s" s="2704">
+      <c r="UB5" t="s" s="2739">
         <v>69</v>
       </c>
-      <c r="UD5" t="s" s="2705">
+      <c r="UC5" t="s" s="2740">
         <v>70</v>
       </c>
-      <c r="UE5" t="s" s="2706">
+      <c r="UD5" t="s" s="2741">
         <v>71</v>
       </c>
-      <c r="UF5" t="s" s="2707">
+      <c r="UE5" t="s" s="2742">
         <v>72</v>
       </c>
-      <c r="UG5" t="s" s="2708">
+      <c r="UF5" t="s" s="2743">
         <v>73</v>
       </c>
-      <c r="UH5" t="s" s="2709">
+      <c r="UG5" t="s" s="2744">
         <v>74</v>
       </c>
-      <c r="UI5" t="s" s="2710">
+      <c r="UH5" t="s" s="2745">
         <v>75</v>
       </c>
-      <c r="UJ5" t="s" s="2711">
-        <v>64</v>
-      </c>
-      <c r="UK5" t="s" s="2712">
+      <c r="UI5" t="s" s="2746">
+        <v>76</v>
+      </c>
+      <c r="UJ5" t="s" s="2747">
         <v>65</v>
       </c>
-      <c r="UL5" t="s" s="2713">
+      <c r="UK5" t="s" s="2748">
         <v>66</v>
       </c>
-      <c r="UM5" t="s" s="2714">
+      <c r="UL5" t="s" s="2749">
         <v>67</v>
       </c>
-      <c r="UN5" t="s" s="2715">
+      <c r="UM5" t="s" s="2750">
         <v>68</v>
       </c>
-      <c r="UO5" t="s" s="2716">
+      <c r="UN5" t="s" s="2751">
         <v>69</v>
       </c>
-      <c r="UP5" t="s" s="2717">
+      <c r="UO5" t="s" s="2752">
         <v>70</v>
       </c>
-      <c r="UQ5" t="s" s="2718">
+      <c r="UP5" t="s" s="2753">
         <v>71</v>
       </c>
-      <c r="UR5" t="s" s="2719">
+      <c r="UQ5" t="s" s="2754">
         <v>72</v>
       </c>
-      <c r="US5" t="s" s="2720">
+      <c r="UR5" t="s" s="2755">
         <v>73</v>
       </c>
-      <c r="UT5" t="s" s="2721">
+      <c r="US5" t="s" s="2756">
         <v>74</v>
       </c>
-      <c r="UU5" t="s" s="2722">
+      <c r="UT5" t="s" s="2757">
         <v>75</v>
       </c>
-      <c r="UV5" t="s" s="2723">
-        <v>64</v>
-      </c>
-      <c r="UW5" t="s" s="2724">
+      <c r="UU5" t="s" s="2758">
+        <v>76</v>
+      </c>
+      <c r="UV5" t="s" s="2759">
         <v>65</v>
       </c>
-      <c r="UX5" t="s" s="2725">
+      <c r="UW5" t="s" s="2760">
         <v>66</v>
       </c>
-      <c r="UY5" t="s" s="2726">
+      <c r="UX5" t="s" s="2761">
         <v>67</v>
       </c>
-      <c r="UZ5" t="s" s="2727">
+      <c r="UY5" t="s" s="2762">
         <v>68</v>
       </c>
-      <c r="VA5" t="s" s="2728">
+      <c r="UZ5" t="s" s="2763">
         <v>69</v>
       </c>
-      <c r="VB5" t="s" s="2729">
+      <c r="VA5" t="s" s="2764">
         <v>70</v>
       </c>
-      <c r="VC5" t="s" s="2730">
+      <c r="VB5" t="s" s="2765">
         <v>71</v>
       </c>
-      <c r="VD5" t="s" s="2731">
+      <c r="VC5" t="s" s="2766">
         <v>72</v>
       </c>
-      <c r="VE5" t="s" s="2732">
+      <c r="VD5" t="s" s="2767">
         <v>73</v>
       </c>
-      <c r="VF5" t="s" s="2733">
+      <c r="VE5" t="s" s="2768">
         <v>74</v>
       </c>
-      <c r="VG5" t="s" s="2734">
+      <c r="VF5" t="s" s="2769">
         <v>75</v>
       </c>
-      <c r="VH5" t="s" s="2735">
-        <v>64</v>
-      </c>
-      <c r="VI5" t="s" s="2736">
+      <c r="VG5" t="s" s="2770">
+        <v>76</v>
+      </c>
+      <c r="VH5" t="s" s="2771">
         <v>65</v>
       </c>
-      <c r="VJ5" t="s" s="2737">
+      <c r="VI5" t="s" s="2772">
         <v>66</v>
       </c>
-      <c r="VK5" t="s" s="2738">
+      <c r="VJ5" t="s" s="2773">
         <v>67</v>
       </c>
-      <c r="VL5" t="s" s="2739">
+      <c r="VK5" t="s" s="2774">
         <v>68</v>
       </c>
-      <c r="VM5" t="s" s="2740">
+      <c r="VL5" t="s" s="2775">
         <v>69</v>
       </c>
-      <c r="VN5" t="s" s="2741">
+      <c r="VM5" t="s" s="2776">
         <v>70</v>
       </c>
-      <c r="VO5" t="s" s="2742">
+      <c r="VN5" t="s" s="2777">
         <v>71</v>
       </c>
-      <c r="VP5" t="s" s="2743">
+      <c r="VO5" t="s" s="2778">
         <v>72</v>
       </c>
-      <c r="VQ5" t="s" s="2744">
+      <c r="VP5" t="s" s="2779">
         <v>73</v>
       </c>
-      <c r="VR5" t="s" s="2745">
+      <c r="VQ5" t="s" s="2780">
         <v>74</v>
       </c>
-      <c r="VS5" t="s" s="2746">
+      <c r="VR5" t="s" s="2781">
         <v>75</v>
       </c>
-      <c r="VT5" t="s" s="2747">
-        <v>64</v>
-      </c>
-      <c r="VU5" t="s" s="2748">
+      <c r="VS5" t="s" s="2782">
+        <v>76</v>
+      </c>
+      <c r="VT5" t="s" s="2783">
         <v>65</v>
       </c>
-      <c r="VV5" t="s" s="2749">
+      <c r="VU5" t="s" s="2784">
         <v>66</v>
       </c>
-      <c r="VW5" t="s" s="2750">
+      <c r="VV5" t="s" s="2785">
         <v>67</v>
       </c>
-      <c r="VX5" t="s" s="2751">
+      <c r="VW5" t="s" s="2786">
         <v>68</v>
       </c>
-      <c r="VY5" t="s" s="2752">
+      <c r="VX5" t="s" s="2787">
         <v>69</v>
       </c>
-      <c r="VZ5" t="s" s="2753">
+      <c r="VY5" t="s" s="2788">
         <v>70</v>
       </c>
-      <c r="WA5" t="s" s="2754">
+      <c r="VZ5" t="s" s="2789">
         <v>71</v>
       </c>
-      <c r="WB5" t="s" s="2755">
+      <c r="WA5" t="s" s="2790">
         <v>72</v>
       </c>
-      <c r="WC5" t="s" s="2756">
+      <c r="WB5" t="s" s="2791">
         <v>73</v>
       </c>
-      <c r="WD5" t="s" s="2757">
+      <c r="WC5" t="s" s="2792">
         <v>74</v>
       </c>
-      <c r="WE5" t="s" s="2758">
+      <c r="WD5" t="s" s="2793">
         <v>75</v>
       </c>
-      <c r="WF5" t="s" s="2759">
-        <v>64</v>
-      </c>
-      <c r="WG5" t="s" s="2760">
+      <c r="WE5" t="s" s="2794">
+        <v>76</v>
+      </c>
+      <c r="WF5" t="s" s="2795">
         <v>65</v>
       </c>
-      <c r="WH5" t="s" s="2761">
+      <c r="WG5" t="s" s="2796">
         <v>66</v>
       </c>
-      <c r="WI5" t="s" s="2762">
+      <c r="WH5" t="s" s="2797">
         <v>67</v>
       </c>
-      <c r="WJ5" t="s" s="2763">
+      <c r="WI5" t="s" s="2798">
         <v>68</v>
       </c>
-      <c r="WK5" t="s" s="2764">
+      <c r="WJ5" t="s" s="2799">
         <v>69</v>
       </c>
-      <c r="WL5" t="s" s="2765">
+      <c r="WK5" t="s" s="2800">
         <v>70</v>
       </c>
-      <c r="WM5" t="s" s="2766">
+      <c r="WL5" t="s" s="2801">
         <v>71</v>
       </c>
-      <c r="WN5" t="s" s="2767">
+      <c r="WM5" t="s" s="2802">
         <v>72</v>
       </c>
-      <c r="WO5" t="s" s="2768">
+      <c r="WN5" t="s" s="2803">
         <v>73</v>
       </c>
-      <c r="WP5" t="s" s="2769">
+      <c r="WO5" t="s" s="2804">
         <v>74</v>
       </c>
-      <c r="WQ5" t="s" s="2770">
+      <c r="WP5" t="s" s="2805">
         <v>75</v>
       </c>
-      <c r="WR5" t="s" s="2771">
-        <v>64</v>
-      </c>
-      <c r="WS5" t="s" s="2772">
+      <c r="WQ5" t="s" s="2806">
+        <v>76</v>
+      </c>
+      <c r="WR5" t="s" s="2807">
         <v>65</v>
       </c>
-      <c r="WT5" t="s" s="2773">
+      <c r="WS5" t="s" s="2808">
         <v>66</v>
       </c>
-      <c r="WU5" t="s" s="2774">
+      <c r="WT5" t="s" s="2809">
         <v>67</v>
       </c>
-      <c r="WV5" t="s" s="2775">
+      <c r="WU5" t="s" s="2810">
         <v>68</v>
       </c>
-      <c r="WW5" t="s" s="2776">
+      <c r="WV5" t="s" s="2811">
         <v>69</v>
       </c>
-      <c r="WX5" t="s" s="2777">
+      <c r="WW5" t="s" s="2812">
         <v>70</v>
       </c>
-      <c r="WY5" t="s" s="2778">
+      <c r="WX5" t="s" s="2813">
         <v>71</v>
       </c>
-      <c r="WZ5" t="s" s="2779">
+      <c r="WY5" t="s" s="2814">
         <v>72</v>
       </c>
-      <c r="XA5" t="s" s="2780">
+      <c r="WZ5" t="s" s="2815">
         <v>73</v>
       </c>
-      <c r="XB5" t="s" s="2781">
+      <c r="XA5" t="s" s="2816">
         <v>74</v>
       </c>
-      <c r="XC5" t="s" s="2782">
+      <c r="XB5" t="s" s="2817">
         <v>75</v>
       </c>
-      <c r="XD5" t="s" s="2783">
-        <v>64</v>
-      </c>
-      <c r="XE5" t="s" s="2784">
+      <c r="XC5" t="s" s="2818">
+        <v>76</v>
+      </c>
+      <c r="XD5" t="s" s="2819">
         <v>65</v>
       </c>
-      <c r="XF5" t="s" s="2785">
+      <c r="XE5" t="s" s="2820">
         <v>66</v>
       </c>
-      <c r="XG5" t="s" s="2786">
+      <c r="XF5" t="s" s="2821">
         <v>67</v>
       </c>
-      <c r="XH5" t="s" s="2787">
+      <c r="XG5" t="s" s="2822">
         <v>68</v>
       </c>
-      <c r="XI5" t="s" s="2788">
+      <c r="XH5" t="s" s="2823">
         <v>69</v>
       </c>
-      <c r="XJ5" t="s" s="2789">
+      <c r="XI5" t="s" s="2824">
         <v>70</v>
       </c>
-      <c r="XK5" t="s" s="2790">
+      <c r="XJ5" t="s" s="2825">
         <v>71</v>
       </c>
-      <c r="XL5" t="s" s="2791">
+      <c r="XK5" t="s" s="2826">
         <v>72</v>
       </c>
-      <c r="XM5" t="s" s="2792">
+      <c r="XL5" t="s" s="2827">
         <v>73</v>
       </c>
-      <c r="XN5" t="s" s="2793">
+      <c r="XM5" t="s" s="2828">
         <v>74</v>
       </c>
-      <c r="XO5" t="s" s="2794">
+      <c r="XN5" t="s" s="2829">
         <v>75</v>
       </c>
-      <c r="XP5" t="s" s="2795">
-        <v>64</v>
-      </c>
-      <c r="XQ5" t="s" s="2796">
+      <c r="XO5" t="s" s="2830">
+        <v>76</v>
+      </c>
+      <c r="XP5" t="s" s="2831">
         <v>65</v>
       </c>
-      <c r="XR5" t="s" s="2797">
+      <c r="XQ5" t="s" s="2832">
         <v>66</v>
       </c>
-      <c r="XS5" t="s" s="2798">
+      <c r="XR5" t="s" s="2833">
         <v>67</v>
       </c>
-      <c r="XT5" t="s" s="2799">
+      <c r="XS5" t="s" s="2834">
         <v>68</v>
       </c>
-      <c r="XU5" t="s" s="2800">
+      <c r="XT5" t="s" s="2835">
         <v>69</v>
       </c>
-      <c r="XV5" t="s" s="2801">
+      <c r="XU5" t="s" s="2836">
         <v>70</v>
       </c>
-      <c r="XW5" t="s" s="2802">
+      <c r="XV5" t="s" s="2837">
         <v>71</v>
       </c>
-      <c r="XX5" t="s" s="2803">
+      <c r="XW5" t="s" s="2838">
         <v>72</v>
       </c>
-      <c r="XY5" t="s" s="2804">
+      <c r="XX5" t="s" s="2839">
         <v>73</v>
       </c>
-      <c r="XZ5" t="s" s="2805">
+      <c r="XY5" t="s" s="2840">
         <v>74</v>
       </c>
-      <c r="YA5" t="s" s="2806">
+      <c r="XZ5" t="s" s="2841">
         <v>75</v>
       </c>
-      <c r="YB5" t="s" s="2807">
-        <v>64</v>
-      </c>
-      <c r="YC5" t="s" s="2808">
+      <c r="YA5" t="s" s="2842">
+        <v>76</v>
+      </c>
+      <c r="YB5" t="s" s="2843">
         <v>65</v>
       </c>
-      <c r="YD5" t="s" s="2809">
+      <c r="YC5" t="s" s="2844">
         <v>66</v>
       </c>
-      <c r="YE5" t="s" s="2810">
+      <c r="YD5" t="s" s="2845">
         <v>67</v>
       </c>
-      <c r="YF5" t="s" s="2811">
+      <c r="YE5" t="s" s="2846">
         <v>68</v>
       </c>
-      <c r="YG5" t="s" s="2812">
+      <c r="YF5" t="s" s="2847">
         <v>69</v>
       </c>
-      <c r="YH5" t="s" s="2813">
+      <c r="YG5" t="s" s="2848">
         <v>70</v>
       </c>
-      <c r="YI5" t="s" s="2814">
+      <c r="YH5" t="s" s="2849">
         <v>71</v>
       </c>
-      <c r="YJ5" t="s" s="2815">
+      <c r="YI5" t="s" s="2850">
         <v>72</v>
       </c>
-      <c r="YK5" t="s" s="2816">
+      <c r="YJ5" t="s" s="2851">
         <v>73</v>
       </c>
-      <c r="YL5" t="s" s="2817">
+      <c r="YK5" t="s" s="2852">
         <v>74</v>
       </c>
-      <c r="YM5" t="s" s="2818">
+      <c r="YL5" t="s" s="2853">
         <v>75</v>
       </c>
-      <c r="YN5" t="s" s="2819">
-        <v>64</v>
-      </c>
-      <c r="YO5" t="s" s="2820">
+      <c r="YM5" t="s" s="2854">
+        <v>76</v>
+      </c>
+      <c r="YN5" t="s" s="2855">
         <v>65</v>
       </c>
-      <c r="YP5" t="s" s="2821">
+      <c r="YO5" t="s" s="2856">
         <v>66</v>
       </c>
-      <c r="YQ5" t="s" s="2822">
+      <c r="YP5" t="s" s="2857">
         <v>67</v>
       </c>
-      <c r="YR5" t="s" s="2823">
+      <c r="YQ5" t="s" s="2858">
         <v>68</v>
       </c>
-      <c r="YS5" t="s" s="2824">
+      <c r="YR5" t="s" s="2859">
         <v>69</v>
       </c>
-      <c r="YT5" t="s" s="2825">
+      <c r="YS5" t="s" s="2860">
         <v>70</v>
       </c>
-      <c r="YU5" t="s" s="2826">
+      <c r="YT5" t="s" s="2861">
         <v>71</v>
       </c>
-      <c r="YV5" t="s" s="2827">
+      <c r="YU5" t="s" s="2862">
         <v>72</v>
       </c>
-      <c r="YW5" t="s" s="2828">
+      <c r="YV5" t="s" s="2863">
         <v>73</v>
       </c>
-      <c r="YX5" t="s" s="2829">
+      <c r="YW5" t="s" s="2864">
         <v>74</v>
       </c>
-      <c r="YY5" t="s" s="2830">
+      <c r="YX5" t="s" s="2865">
         <v>75</v>
       </c>
-      <c r="YZ5" t="s" s="2831">
-        <v>64</v>
-      </c>
-      <c r="ZA5" t="s" s="2832">
+      <c r="YY5" t="s" s="2866">
+        <v>76</v>
+      </c>
+      <c r="YZ5" t="s" s="2867">
         <v>65</v>
       </c>
-      <c r="ZB5" t="s" s="2833">
+      <c r="ZA5" t="s" s="2868">
         <v>66</v>
       </c>
-      <c r="ZC5" t="s" s="2834">
+      <c r="ZB5" t="s" s="2869">
         <v>67</v>
       </c>
-      <c r="ZD5" t="s" s="2835">
+      <c r="ZC5" t="s" s="2870">
         <v>68</v>
       </c>
-      <c r="ZE5" t="s" s="2836">
+      <c r="ZD5" t="s" s="2871">
         <v>69</v>
       </c>
-      <c r="ZF5" t="s" s="2837">
+      <c r="ZE5" t="s" s="2872">
         <v>70</v>
       </c>
-      <c r="ZG5" t="s" s="2838">
+      <c r="ZF5" t="s" s="2873">
         <v>71</v>
       </c>
-      <c r="ZH5" t="s" s="2839">
+      <c r="ZG5" t="s" s="2874">
         <v>72</v>
       </c>
-      <c r="ZI5" t="s" s="2840">
+      <c r="ZH5" t="s" s="2875">
         <v>73</v>
       </c>
-      <c r="ZJ5" t="s" s="2841">
+      <c r="ZI5" t="s" s="2876">
         <v>74</v>
       </c>
-      <c r="ZK5" t="s" s="2842">
+      <c r="ZJ5" t="s" s="2877">
         <v>75</v>
       </c>
-      <c r="ZL5" t="s" s="2843">
-        <v>64</v>
-      </c>
-      <c r="ZM5" t="s" s="2844">
+      <c r="ZK5" t="s" s="2878">
+        <v>76</v>
+      </c>
+      <c r="ZL5" t="s" s="2879">
         <v>65</v>
       </c>
-      <c r="ZN5" t="s" s="2845">
+      <c r="ZM5" t="s" s="2880">
         <v>66</v>
       </c>
-      <c r="ZO5" t="s" s="2846">
+      <c r="ZN5" t="s" s="2881">
         <v>67</v>
       </c>
-      <c r="ZP5" t="s" s="2847">
+      <c r="ZO5" t="s" s="2882">
         <v>68</v>
       </c>
-      <c r="ZQ5" t="s" s="2848">
+      <c r="ZP5" t="s" s="2883">
         <v>69</v>
       </c>
-      <c r="ZR5" t="s" s="2849">
+      <c r="ZQ5" t="s" s="2884">
         <v>70</v>
       </c>
-      <c r="ZS5" t="s" s="2850">
+      <c r="ZR5" t="s" s="2885">
         <v>71</v>
       </c>
-      <c r="ZT5" t="s" s="2851">
+      <c r="ZS5" t="s" s="2886">
         <v>72</v>
       </c>
-      <c r="ZU5" t="s" s="2852">
+      <c r="ZT5" t="s" s="2887">
         <v>73</v>
       </c>
-      <c r="ZV5" t="s" s="2853">
+      <c r="ZU5" t="s" s="2888">
         <v>74</v>
       </c>
-      <c r="ZW5" t="s" s="2854">
+      <c r="ZV5" t="s" s="2889">
         <v>75</v>
       </c>
-      <c r="ZX5" t="s" s="2855">
-        <v>64</v>
-      </c>
-      <c r="ZY5" t="s" s="2856">
+      <c r="ZW5" t="s" s="2890">
+        <v>76</v>
+      </c>
+      <c r="ZX5" t="s" s="2891">
         <v>65</v>
       </c>
-      <c r="ZZ5" t="s" s="2857">
+      <c r="ZY5" t="s" s="2892">
         <v>66</v>
       </c>
-      <c r="AAA5" t="s" s="2858">
+      <c r="ZZ5" t="s" s="2893">
         <v>67</v>
       </c>
-      <c r="AAB5" t="s" s="2859">
+      <c r="AAA5" t="s" s="2894">
         <v>68</v>
       </c>
-      <c r="AAC5" t="s" s="2860">
+      <c r="AAB5" t="s" s="2895">
         <v>69</v>
       </c>
-      <c r="AAD5" t="s" s="2861">
+      <c r="AAC5" t="s" s="2896">
         <v>70</v>
       </c>
-      <c r="AAE5" t="s" s="2862">
+      <c r="AAD5" t="s" s="2897">
         <v>71</v>
       </c>
-      <c r="AAF5" t="s" s="2863">
+      <c r="AAE5" t="s" s="2898">
         <v>72</v>
       </c>
-      <c r="AAG5" t="s" s="2864">
+      <c r="AAF5" t="s" s="2899">
         <v>73</v>
       </c>
-      <c r="AAH5" t="s" s="2865">
+      <c r="AAG5" t="s" s="2900">
         <v>74</v>
       </c>
-      <c r="AAI5" t="s" s="2866">
+      <c r="AAH5" t="s" s="2901">
         <v>75</v>
+      </c>
+      <c r="AAI5" t="s" s="2902">
+        <v>76</v>
+      </c>
+      <c r="AAJ5" t="s" s="2903">
+        <v>65</v>
+      </c>
+      <c r="AAK5" t="s" s="2904">
+        <v>66</v>
+      </c>
+      <c r="AAL5" t="s" s="2905">
+        <v>67</v>
+      </c>
+      <c r="AAM5" t="s" s="2906">
+        <v>68</v>
+      </c>
+      <c r="AAN5" t="s" s="2907">
+        <v>69</v>
+      </c>
+      <c r="AAO5" t="s" s="2908">
+        <v>70</v>
+      </c>
+      <c r="AAP5" t="s" s="2909">
+        <v>71</v>
+      </c>
+      <c r="AAQ5" t="s" s="2910">
+        <v>72</v>
+      </c>
+      <c r="AAR5" t="s" s="2911">
+        <v>73</v>
+      </c>
+      <c r="AAS5" t="s" s="2912">
+        <v>74</v>
+      </c>
+      <c r="AAT5" t="s" s="2913">
+        <v>75</v>
+      </c>
+      <c r="AAU5" t="s" s="2914">
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="9">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B6" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C6" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D6" t="n" s="10">
         <v>200.0</v>
@@ -17432,14 +17677,50 @@
       </c>
       <c r="AAI6" t="n" s="10">
         <v>7376.0</v>
+      </c>
+      <c r="AAJ6" t="n" s="10">
+        <v>5623.0</v>
+      </c>
+      <c r="AAK6" t="n" s="10">
+        <v>13109.0</v>
+      </c>
+      <c r="AAL6" t="n" s="10">
+        <v>30143.0</v>
+      </c>
+      <c r="AAM6" t="n" s="10">
+        <v>23264.0</v>
+      </c>
+      <c r="AAN6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT6" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU6" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="B7" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C7" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C7" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D7" t="n" s="10">
         <v>4292.0</v>
@@ -19564,17 +19845,53 @@
       </c>
       <c r="AAI7" t="n" s="10">
         <v>13253.0</v>
+      </c>
+      <c r="AAJ7" t="n" s="10">
+        <v>17745.0</v>
+      </c>
+      <c r="AAK7" t="n" s="10">
+        <v>28742.0</v>
+      </c>
+      <c r="AAL7" t="n" s="10">
+        <v>59660.0</v>
+      </c>
+      <c r="AAM7" t="n" s="10">
+        <v>51987.0</v>
+      </c>
+      <c r="AAN7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT7" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU7" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="9">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C8" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D8" t="n" s="10">
         <v>64982.0</v>
@@ -21699,14 +22016,50 @@
       </c>
       <c r="AAI8" t="n" s="10">
         <v>227630.0</v>
+      </c>
+      <c r="AAJ8" t="n" s="10">
+        <v>184112.0</v>
+      </c>
+      <c r="AAK8" t="n" s="10">
+        <v>200512.0</v>
+      </c>
+      <c r="AAL8" t="n" s="10">
+        <v>241330.0</v>
+      </c>
+      <c r="AAM8" t="n" s="10">
+        <v>180264.0</v>
+      </c>
+      <c r="AAN8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT8" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU8" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C9" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C9" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D9" t="n" s="10">
         <v>90725.0</v>
@@ -22717,28 +23070,28 @@
         <v>336098.0</v>
       </c>
       <c r="MB9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MC9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MD9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ME9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MF9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MG9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MH9" t="n" s="10">
         <v>645723.0</v>
       </c>
       <c r="MI9" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MJ9" t="n" s="10">
         <v>601709.0</v>
@@ -23831,17 +24184,53 @@
       </c>
       <c r="AAI9" t="n" s="10">
         <v>471184.0</v>
+      </c>
+      <c r="AAJ9" t="n" s="10">
+        <v>471804.0</v>
+      </c>
+      <c r="AAK9" t="n" s="10">
+        <v>466304.0</v>
+      </c>
+      <c r="AAL9" t="n" s="10">
+        <v>533934.0</v>
+      </c>
+      <c r="AAM9" t="n" s="10">
+        <v>441550.0</v>
+      </c>
+      <c r="AAN9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT9" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU9" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="9">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B10" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C10" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D10" t="n" s="10">
         <v>5766.0</v>
@@ -25068,912 +25457,948 @@
         <v>17052.0</v>
       </c>
       <c r="OV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ST10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="US10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZJ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZK10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZL10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZM10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZN10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZO10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZP10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZQ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZR10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZS10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZT10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZU10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZV10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZW10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZX10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZY10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZZ10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAA10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAB10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAC10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAD10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAE10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAF10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAG10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAH10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAI10" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AAJ10" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAK10" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAL10" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAM10" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAN10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT10" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU10" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="11">
       <c r="B11" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C11" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C11" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D11" t="n" s="10">
         <v>4682.0</v>
@@ -26984,28 +27409,28 @@
         <v>43772.0</v>
       </c>
       <c r="MB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ME11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MH11" t="n" s="10">
         <v>81596.0</v>
       </c>
       <c r="MI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MJ11" t="n" s="10">
         <v>74848.0</v>
@@ -27200,915 +27625,951 @@
         <v>74547.0</v>
       </c>
       <c r="OV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="OZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="PZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="QZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="RZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ST11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="SZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="TZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="US11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="UZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="VZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="WZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="XZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="YZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZJ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZK11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZL11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZM11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZN11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZO11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZP11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZQ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZR11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZS11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZT11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZU11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZV11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZW11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZX11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZY11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ZZ11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAA11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAB11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAC11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAD11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAE11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAF11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAG11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAH11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="AAI11" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="AAJ11" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAK11" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAL11" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAM11" t="s" s="10">
+        <v>83</v>
+      </c>
+      <c r="AAN11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT11" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU11" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="9">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B12" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C12" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D12" t="n" s="10">
         <v>6978.0</v>
@@ -30233,14 +30694,50 @@
       </c>
       <c r="AAI12" t="n" s="10">
         <v>23243.0</v>
+      </c>
+      <c r="AAJ12" t="n" s="10">
+        <v>18612.0</v>
+      </c>
+      <c r="AAK12" t="n" s="10">
+        <v>20536.0</v>
+      </c>
+      <c r="AAL12" t="n" s="10">
+        <v>24723.0</v>
+      </c>
+      <c r="AAM12" t="n" s="10">
+        <v>17539.0</v>
+      </c>
+      <c r="AAN12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT12" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU12" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C13" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C13" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D13" t="n" s="10">
         <v>5331.0</v>
@@ -31251,13 +31748,13 @@
         <v>8714.0</v>
       </c>
       <c r="MB13" t="s" s="10">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="MC13" t="s" s="10">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="MD13" t="s" s="10">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="ME13" t="n" s="10">
         <v>19578.0</v>
@@ -32365,17 +32862,53 @@
       </c>
       <c r="AAI13" t="n" s="10">
         <v>30637.0</v>
+      </c>
+      <c r="AAJ13" t="n" s="10">
+        <v>32921.0</v>
+      </c>
+      <c r="AAK13" t="n" s="10">
+        <v>32679.0</v>
+      </c>
+      <c r="AAL13" t="n" s="10">
+        <v>36921.0</v>
+      </c>
+      <c r="AAM13" t="n" s="10">
+        <v>29648.0</v>
+      </c>
+      <c r="AAN13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT13" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU13" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="9">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B14" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C14" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D14" t="n" s="10">
         <v>195.0</v>
@@ -34500,14 +35033,50 @@
       </c>
       <c r="AAI14" t="n" s="10">
         <v>1124.0</v>
+      </c>
+      <c r="AAJ14" t="n" s="10">
+        <v>439.0</v>
+      </c>
+      <c r="AAK14" t="n" s="10">
+        <v>321.0</v>
+      </c>
+      <c r="AAL14" t="n" s="10">
+        <v>385.0</v>
+      </c>
+      <c r="AAM14" t="n" s="10">
+        <v>253.0</v>
+      </c>
+      <c r="AAN14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT14" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU14" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C15" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C15" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D15" t="n" s="10">
         <v>167.0</v>
@@ -35518,13 +36087,13 @@
         <v>344.0</v>
       </c>
       <c r="MB15" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MC15" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MD15" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ME15" t="n" s="10">
         <v>832.0</v>
@@ -36632,17 +37201,53 @@
       </c>
       <c r="AAI15" t="n" s="10">
         <v>562.0</v>
+      </c>
+      <c r="AAJ15" t="n" s="10">
+        <v>552.0</v>
+      </c>
+      <c r="AAK15" t="n" s="10">
+        <v>357.0</v>
+      </c>
+      <c r="AAL15" t="n" s="10">
+        <v>596.0</v>
+      </c>
+      <c r="AAM15" t="n" s="10">
+        <v>509.0</v>
+      </c>
+      <c r="AAN15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT15" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU15" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="9">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B16" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C16" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D16" t="n" s="10">
         <v>4385.0</v>
@@ -38767,14 +39372,50 @@
       </c>
       <c r="AAI16" t="n" s="10">
         <v>8079.0</v>
+      </c>
+      <c r="AAJ16" t="n" s="10">
+        <v>6254.0</v>
+      </c>
+      <c r="AAK16" t="n" s="10">
+        <v>7132.0</v>
+      </c>
+      <c r="AAL16" t="n" s="10">
+        <v>9572.0</v>
+      </c>
+      <c r="AAM16" t="n" s="10">
+        <v>7190.0</v>
+      </c>
+      <c r="AAN16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT16" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU16" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C17" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C17" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D17" t="n" s="10">
         <v>3423.0</v>
@@ -39785,13 +40426,13 @@
         <v>3833.0</v>
       </c>
       <c r="MB17" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MC17" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MD17" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ME17" t="n" s="10">
         <v>10026.0</v>
@@ -40899,17 +41540,53 @@
       </c>
       <c r="AAI17" t="n" s="10">
         <v>11127.0</v>
+      </c>
+      <c r="AAJ17" t="n" s="10">
+        <v>11373.0</v>
+      </c>
+      <c r="AAK17" t="n" s="10">
+        <v>11696.0</v>
+      </c>
+      <c r="AAL17" t="n" s="10">
+        <v>14238.0</v>
+      </c>
+      <c r="AAM17" t="n" s="10">
+        <v>11478.0</v>
+      </c>
+      <c r="AAN17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT17" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU17" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="9">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B18" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C18" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D18" t="n" s="10">
         <v>543.0</v>
@@ -43034,14 +43711,50 @@
       </c>
       <c r="AAI18" t="n" s="10">
         <v>2046.0</v>
+      </c>
+      <c r="AAJ18" t="n" s="10">
+        <v>1308.0</v>
+      </c>
+      <c r="AAK18" t="n" s="10">
+        <v>1479.0</v>
+      </c>
+      <c r="AAL18" t="n" s="10">
+        <v>1815.0</v>
+      </c>
+      <c r="AAM18" t="n" s="10">
+        <v>1457.0</v>
+      </c>
+      <c r="AAN18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT18" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU18" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C19" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C19" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D19" t="n" s="10">
         <v>253.0</v>
@@ -44052,13 +44765,13 @@
         <v>2945.0</v>
       </c>
       <c r="MB19" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MC19" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MD19" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ME19" t="n" s="10">
         <v>7966.0</v>
@@ -45166,17 +45879,53 @@
       </c>
       <c r="AAI19" t="n" s="10">
         <v>1297.0</v>
+      </c>
+      <c r="AAJ19" t="n" s="10">
+        <v>1377.0</v>
+      </c>
+      <c r="AAK19" t="n" s="10">
+        <v>1299.0</v>
+      </c>
+      <c r="AAL19" t="n" s="10">
+        <v>1540.0</v>
+      </c>
+      <c r="AAM19" t="n" s="10">
+        <v>1246.0</v>
+      </c>
+      <c r="AAN19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT19" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU19" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="9">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B20" t="s" s="9">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C20" t="s" s="13">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D20" t="n" s="10">
         <v>2267.0</v>
@@ -47301,14 +48050,50 @@
       </c>
       <c r="AAI20" t="n" s="10">
         <v>18255.0</v>
+      </c>
+      <c r="AAJ20" t="n" s="10">
+        <v>19953.0</v>
+      </c>
+      <c r="AAK20" t="n" s="10">
+        <v>24177.0</v>
+      </c>
+      <c r="AAL20" t="n" s="10">
+        <v>35895.0</v>
+      </c>
+      <c r="AAM20" t="n" s="10">
+        <v>30669.0</v>
+      </c>
+      <c r="AAN20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT20" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU20" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="9">
+        <v>81</v>
+      </c>
+      <c r="C21" t="s" s="13">
         <v>79</v>
-      </c>
-      <c r="C21" t="s" s="13">
-        <v>78</v>
       </c>
       <c r="D21" t="n" s="10">
         <v>1626.0</v>
@@ -48319,13 +49104,13 @@
         <v>7003.0</v>
       </c>
       <c r="MB21" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MC21" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="MD21" t="s" s="10">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="ME21" t="n" s="10">
         <v>21412.0</v>
@@ -49433,32 +50218,68 @@
       </c>
       <c r="AAI21" t="n" s="10">
         <v>28269.0</v>
+      </c>
+      <c r="AAJ21" t="n" s="10">
+        <v>30868.0</v>
+      </c>
+      <c r="AAK21" t="n" s="10">
+        <v>31130.0</v>
+      </c>
+      <c r="AAL21" t="n" s="10">
+        <v>39024.0</v>
+      </c>
+      <c r="AAM21" t="n" s="10">
+        <v>35032.0</v>
+      </c>
+      <c r="AAN21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAO21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAP21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAQ21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAR21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAS21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAT21" t="s" s="10">
+        <v>80</v>
+      </c>
+      <c r="AAU21" t="s" s="10">
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="11">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s" s="11">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="11">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="12">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A2:AAI2"/>
-    <mergeCell ref="A3:AAI3"/>
+    <mergeCell ref="A2:AAU2"/>
+    <mergeCell ref="A3:AAU3"/>
     <mergeCell ref="A4:B5"/>
     <mergeCell ref="C4:C5"/>
     <mergeCell ref="D4:O4"/>
@@ -49520,11 +50341,12 @@
     <mergeCell ref="YZ4:ZK4"/>
     <mergeCell ref="ZL4:ZW4"/>
     <mergeCell ref="ZX4:AAI4"/>
-    <mergeCell ref="A1:AAI1"/>
+    <mergeCell ref="AAJ4:AAU4"/>
+    <mergeCell ref="A1:AAU1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 01.04.22 / 04:12:39&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:51:18&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
--- a/INTLINE/data/134/DEUSTATIS/First registrations and changes in ownership of motor vehicles and trailers.xlsx
+++ b/INTLINE/data/134/DEUSTATIS/First registrations and changes in ownership of motor vehicles and trailers.xlsx
@@ -296,7 +296,7 @@
     <t>Until 1990: Former territory of the Federal Republic.</t>
   </si>
   <si>
-    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-17 / 09:51:10</t>
+    <t>© Federal Statistical Office, Wiesbaden 2022 | created: 2022-06-28 / 07:02:12</t>
   </si>
 </sst>
 </file>
@@ -50346,7 +50346,7 @@
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <headerFooter>
-    <oddFooter>&amp;CAbgerufen am 17.06.22 / 09:51:18&amp;RSeite &amp;P von &amp;N</oddFooter>
+    <oddFooter>&amp;CAbgerufen am 28.06.22 / 07:02:19&amp;RSeite &amp;P von &amp;N</oddFooter>
   </headerFooter>
 </worksheet>
 </file>